--- a/data/hotels_by_city/Houston/Houston_shard_351.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_351.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="328">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55609-d1910481-Reviews-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
   </si>
   <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Houston-East-Channelview.h20425.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,888 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r571854264-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>55609</t>
+  </si>
+  <si>
+    <t>1910481</t>
+  </si>
+  <si>
+    <t>571854264</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>This was the first hotel that did not look like the typical Holiday Inn.  It has a great chandelier when you walk in.  The staff was professional and polite.  My room was great and the restaurant had great food.  I would stay there again for sure.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r493778825-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>493778825</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>Nicest Hotel in the nearby area</t>
+  </si>
+  <si>
+    <t>This hotel is ~ 6 years old.  It is very nice, has a bar and room service.  Its a little pricey for the area but that likley due to new hotel and the amenities it offers.  It was nicely furnished and clean.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r488070851-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>488070851</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>This is a Classy hotel. Stayed 5 nights. Awesome service by everyone. From the time I walked in until i checked out it was great. Grom tbe front desk to the restaurant and bar to housekeeping. You will ne pkeased if you stay here.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r437212866-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>437212866</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Best AC in Texas!</t>
+  </si>
+  <si>
+    <t>First the good - the room was very comfortable, clean and spacious. Even though the weather was starting to cool off (a little) we were thrilled to discover that the AC in our room was amazing! To top it off, this room was the first hotel room I've ever had that also featured a ceiling fan. Obviously I like a cold room so this combined with a quiet hall and good light blocking curtains meant that I slept well.
+The room was attractive with a huge TV, a mini-fridge and microwave. It also had a comfy chaise lounge.
+We watched football in the bar on Saturday night and had some appetizers. The food and drinks were great and the bartender was friendly and stayed on top of things - especially after a flood of people came in kind of late and she took care of all of us by herself.
+We had a frustrating experience getting checked in. The night clerk didn't seem to know his job very well and it took far longer than normal. Then he neglected to give us the hospitality gift or points for being an IHG Spire Elite member. 
+Also, Housekeeping skipped our room on Saturday - It was a little frustrating to come back to a room that hadn't been cleaned and my husband had to go down to the desk to get clean towels.  The same night clerk told us that they don't...First the good - the room was very comfortable, clean and spacious. Even though the weather was starting to cool off (a little) we were thrilled to discover that the AC in our room was amazing! To top it off, this room was the first hotel room I've ever had that also featured a ceiling fan. Obviously I like a cold room so this combined with a quiet hall and good light blocking curtains meant that I slept well.The room was attractive with a huge TV, a mini-fridge and microwave. It also had a comfy chaise lounge.We watched football in the bar on Saturday night and had some appetizers. The food and drinks were great and the bartender was friendly and stayed on top of things - especially after a flood of people came in kind of late and she took care of all of us by herself.We had a frustrating experience getting checked in. The night clerk didn't seem to know his job very well and it took far longer than normal. Then he neglected to give us the hospitality gift or points for being an IHG Spire Elite member. Also, Housekeeping skipped our room on Saturday - It was a little frustrating to come back to a room that hadn't been cleaned and my husband had to go down to the desk to get clean towels.  The same night clerk told us that they don't clean on Saturday's. Since we saw housekeeping on our hall as we were leaving the hotel that morning we were pretty sure that the clerk was misinformed. Regardless of the night clerk and the housekeeping oversight I would still return to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>First the good - the room was very comfortable, clean and spacious. Even though the weather was starting to cool off (a little) we were thrilled to discover that the AC in our room was amazing! To top it off, this room was the first hotel room I've ever had that also featured a ceiling fan. Obviously I like a cold room so this combined with a quiet hall and good light blocking curtains meant that I slept well.
+The room was attractive with a huge TV, a mini-fridge and microwave. It also had a comfy chaise lounge.
+We watched football in the bar on Saturday night and had some appetizers. The food and drinks were great and the bartender was friendly and stayed on top of things - especially after a flood of people came in kind of late and she took care of all of us by herself.
+We had a frustrating experience getting checked in. The night clerk didn't seem to know his job very well and it took far longer than normal. Then he neglected to give us the hospitality gift or points for being an IHG Spire Elite member. 
+Also, Housekeeping skipped our room on Saturday - It was a little frustrating to come back to a room that hadn't been cleaned and my husband had to go down to the desk to get clean towels.  The same night clerk told us that they don't...First the good - the room was very comfortable, clean and spacious. Even though the weather was starting to cool off (a little) we were thrilled to discover that the AC in our room was amazing! To top it off, this room was the first hotel room I've ever had that also featured a ceiling fan. Obviously I like a cold room so this combined with a quiet hall and good light blocking curtains meant that I slept well.The room was attractive with a huge TV, a mini-fridge and microwave. It also had a comfy chaise lounge.We watched football in the bar on Saturday night and had some appetizers. The food and drinks were great and the bartender was friendly and stayed on top of things - especially after a flood of people came in kind of late and she took care of all of us by herself.We had a frustrating experience getting checked in. The night clerk didn't seem to know his job very well and it took far longer than normal. Then he neglected to give us the hospitality gift or points for being an IHG Spire Elite member. Also, Housekeeping skipped our room on Saturday - It was a little frustrating to come back to a room that hadn't been cleaned and my husband had to go down to the desk to get clean towels.  The same night clerk told us that they don't clean on Saturday's. Since we saw housekeeping on our hall as we were leaving the hotel that morning we were pretty sure that the clerk was misinformed. Regardless of the night clerk and the housekeeping oversight I would still return to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r434352897-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>434352897</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>Awesome service</t>
+  </si>
+  <si>
+    <t>My week here was awesome from the start.  The head Chef here is amazing and willing to help any way possible. I am on limited diet and not requested he came to our table when I husband was having supper and asked what I was able to eat and went into kitchen and prepared me a meal.  How awesomely me to go out of his way he need to be truely commended on the outstanding job he is doing.  The house keeping job Ms Claudia does here is amazing!!!  These individual need to be recognized on the outstanding job they are doing!!!  THANKS !!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r387285061-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>387285061</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Stayed for a night</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for one night. Their complimentary wifi is excellent. We were getting late for check-in so we ordered food over the phone and it was ready and packed by the time we reached. The breakfast buffet is not so elaborate and I ordered a-la-carte from the breakfast menu. The stay was good and room was cosy. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded July 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for one night. Their complimentary wifi is excellent. We were getting late for check-in so we ordered food over the phone and it was ready and packed by the time we reached. The breakfast buffet is not so elaborate and I ordered a-la-carte from the breakfast menu. The stay was good and room was cosy. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r342707281-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>342707281</t>
+  </si>
+  <si>
+    <t>01/25/2016</t>
+  </si>
+  <si>
+    <t>A gem in the middle of uninviting, heavy industrial area.</t>
+  </si>
+  <si>
+    <t>I was put up here by the company for whom I was working on assignment.There were many other people there from within the same marine industry and it's obvious the hotel caters to crew members and service reps working within the nearby commercial marine and petrochemical enterprises.The facility is very clean and the rooms are quite, especially if you're fortunate to be assigned on on the backside away from the Interstate immediately in front of the hotel.I've stayed at another well-known hotel a mile or so away and this one appears to offer more bang for the buck, although the other one has a complimentary breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Mari V, Director of Sales at Holiday Inn Houston East-Channelview, responded to this reviewResponded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2016</t>
+  </si>
+  <si>
+    <t>I was put up here by the company for whom I was working on assignment.There were many other people there from within the same marine industry and it's obvious the hotel caters to crew members and service reps working within the nearby commercial marine and petrochemical enterprises.The facility is very clean and the rooms are quite, especially if you're fortunate to be assigned on on the backside away from the Interstate immediately in front of the hotel.I've stayed at another well-known hotel a mile or so away and this one appears to offer more bang for the buck, although the other one has a complimentary breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r321868953-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>321868953</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Very nice...oasis in a bad area</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at the Holiday Inn - Channelview for a night. It's actually a very nice, classy hotel. There is no free breakfast, but there is an on-site restaurant with room service. The area is not so nice...very industrial and very busy, but once you're inside the hotel, you don't notice it at all. All things considered, this is a very nice hotel that seems to cater to business people.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r299827129-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>299827129</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>Worth the money</t>
+  </si>
+  <si>
+    <t>I travel quite often and this is one of the better holiday inn's I have stayed in. What made it even nicer was to be able to come back from a hard days work and have a wonderful meal by the wonderful chef Sylvia. Her cooking is amazing and makes any other problems worth the trip. If I had to say anything negative it would be the pillows are old and need to be revitalized,but besides that I highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r274893984-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>274893984</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Service is good and non-intrusive</t>
+  </si>
+  <si>
+    <t>I stayed there a night, basically in transit for my flight from Houston. The rooms are good. The buffet breakfast was basic and the promised buffet lunch was missing altogether (probably because of weekend). The A la carte menu was satisfactory. The staff at reception were very helpfulMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded June 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2015</t>
+  </si>
+  <si>
+    <t>I stayed there a night, basically in transit for my flight from Houston. The rooms are good. The buffet breakfast was basic and the promised buffet lunch was missing altogether (probably because of weekend). The A la carte menu was satisfactory. The staff at reception were very helpfulMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r273298116-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>273298116</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel despite surrounding neighborhood</t>
+  </si>
+  <si>
+    <t>This hotel is just 10 minutes from my work, so I picked it for location. What I like is that even though the location is shady, this is the standard Holiday Inn quality I've come to expect. It's got all the amenities you'd expect.If you have a hard time sleeping with noise, ask for a room that doesn't face the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mari V, Director of Sales at Holiday Inn Houston East-Channelview, responded to this reviewResponded June 1, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is just 10 minutes from my work, so I picked it for location. What I like is that even though the location is shady, this is the standard Holiday Inn quality I've come to expect. It's got all the amenities you'd expect.If you have a hard time sleeping with noise, ask for a room that doesn't face the freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r272759170-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>272759170</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>Clean and quiet, Awesome food</t>
+  </si>
+  <si>
+    <t>The hotel was average, clean and quiet. The best part of the stay is the food at the downstairs restaurant. Chef Jerry and his staff make some very good food. It is not uncommon for Chef Jerry in slower times to be greeting costumers and making sure they are taken care of. He will also make Daily Specials that are 5 star in my opinion. The food made the stay worth while, and I have brought many customers there for business meals because of the quality. Thanks Platinum Member for years.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>The hotel was average, clean and quiet. The best part of the stay is the food at the downstairs restaurant. Chef Jerry and his staff make some very good food. It is not uncommon for Chef Jerry in slower times to be greeting costumers and making sure they are taken care of. He will also make Daily Specials that are 5 star in my opinion. The food made the stay worth while, and I have brought many customers there for business meals because of the quality. Thanks Platinum Member for years.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r244861499-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>244861499</t>
+  </si>
+  <si>
+    <t>12/17/2014</t>
+  </si>
+  <si>
+    <t>Merry Christmas....to us!</t>
+  </si>
+  <si>
+    <t>Attended the annual Christmas Celebration...invited through the Chamber. I believe this was the 3rd or 4th year I've attended. As usual the food was fabulous, Chef Jerry is always on his game! The staff was friendly and management really went out of their way to make us feel welcome. I've had dinner there several times with friends as well as breakfast. The food is great and I enjoy the atmosphere...who knew...Channelview!I was also a field Consultant for several years and covered the North Channel Area. I have spoke to numerous people whose companies I have worked with and stayed at the Holiday Inn while in town on business. I have never received any feedback that was not complimentary of the staff, accommodations and restaurant. I have no reservations referring anyone to them! Thank you Chef Jerry and Mari!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded December 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2014</t>
+  </si>
+  <si>
+    <t>Attended the annual Christmas Celebration...invited through the Chamber. I believe this was the 3rd or 4th year I've attended. As usual the food was fabulous, Chef Jerry is always on his game! The staff was friendly and management really went out of their way to make us feel welcome. I've had dinner there several times with friends as well as breakfast. The food is great and I enjoy the atmosphere...who knew...Channelview!I was also a field Consultant for several years and covered the North Channel Area. I have spoke to numerous people whose companies I have worked with and stayed at the Holiday Inn while in town on business. I have never received any feedback that was not complimentary of the staff, accommodations and restaurant. I have no reservations referring anyone to them! Thank you Chef Jerry and Mari!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r244784083-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>244784083</t>
+  </si>
+  <si>
+    <t>Great hotel, worth a visit.</t>
+  </si>
+  <si>
+    <t>I was in Houston on business, this hotel is excellent for anyone doing the same. It is ideally placed near the main road network to Houston. Staff were very friendly and helpful. The bar and food were excellent, thoroughly recommend the steak. Good value, nice hotel, friendly staff, excellent food - well worth a visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>I was in Houston on business, this hotel is excellent for anyone doing the same. It is ideally placed near the main road network to Houston. Staff were very friendly and helpful. The bar and food were excellent, thoroughly recommend the steak. Good value, nice hotel, friendly staff, excellent food - well worth a visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r244473660-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>244473660</t>
+  </si>
+  <si>
+    <t>12/14/2014</t>
+  </si>
+  <si>
+    <t>Great place to party &amp; stay</t>
+  </si>
+  <si>
+    <t>We just had our company Christmas party at the Holiday Inn in Channelview on 12-13-14 and I must say, Chef Jerry and the staff at the Holiday Inn did a wonderful job all around. Our group of over 100 really enjoyed Chef Jerry's food and hospitality. He took the time to make sure everything was running smoothly and there was never a shortage on any of the food. Everything tasted delicious and you could tell he put his heart into all he made. The desserts were out of this world good. I would recommend not having second thoughts and have your event there if you are thinking about it. You won't have regrets. Visit the restaurant too, everything there is great including the staff. The rooms are large and clean. I will recommend this place to everyone and hope you give this place a try. We were all impressed. Had a great time. Thank you staff at Holiday Inn!MoreShow less</t>
+  </si>
+  <si>
+    <t>We just had our company Christmas party at the Holiday Inn in Channelview on 12-13-14 and I must say, Chef Jerry and the staff at the Holiday Inn did a wonderful job all around. Our group of over 100 really enjoyed Chef Jerry's food and hospitality. He took the time to make sure everything was running smoothly and there was never a shortage on any of the food. Everything tasted delicious and you could tell he put his heart into all he made. The desserts were out of this world good. I would recommend not having second thoughts and have your event there if you are thinking about it. You won't have regrets. Visit the restaurant too, everything there is great including the staff. The rooms are large and clean. I will recommend this place to everyone and hope you give this place a try. We were all impressed. Had a great time. Thank you staff at Holiday Inn!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r216779534-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>216779534</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Excellent Food</t>
+  </si>
+  <si>
+    <t>I met Chef Jerry, he out on the floor meeting and greeting customers making sure all is good with there meal. Special every day and some time he will put out something off the menu for a few traveler.  Deep Fried Peanut Butter and Jelly sandwich best I ever had.  All the food was awesome! 2 thumbs up! will stay here just because of the food he puts out.  Staff is really good and will go way out of the way to make sure your stay is great.  Hats off to the whole group that work there had a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded July 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2014</t>
+  </si>
+  <si>
+    <t>I met Chef Jerry, he out on the floor meeting and greeting customers making sure all is good with there meal. Special every day and some time he will put out something off the menu for a few traveler.  Deep Fried Peanut Butter and Jelly sandwich best I ever had.  All the food was awesome! 2 thumbs up! will stay here just because of the food he puts out.  Staff is really good and will go way out of the way to make sure your stay is great.  Hats off to the whole group that work there had a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r215897241-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>215897241</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>Excellent Staff &amp; Food!</t>
+  </si>
+  <si>
+    <t>I live in the area and dropped by for a drink and a bite at the hotel's Time Out Sports Bar.  When I entered I was floored by the elegance of the hotel.  The sports bar was fresh and smoke free. Bar staff, Michelle and Andrea were excellent hosts, very attentive and friendly. One my second visit I met Chef Jerry, he was out and about meeting and greeting customers. Great personality, even offered to whip up something special (off the menu) for a group of us. It was the best Deep Fried Peanut Butter and Jelly sandwich ever! Topped with a huge scoop of vanilla ice cream. Go, ask for it! Awesome!   And the Tuscan Chicken Sandwich...2 thumbs up!  This place may become my home away from home.Jaime V.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I live in the area and dropped by for a drink and a bite at the hotel's Time Out Sports Bar.  When I entered I was floored by the elegance of the hotel.  The sports bar was fresh and smoke free. Bar staff, Michelle and Andrea were excellent hosts, very attentive and friendly. One my second visit I met Chef Jerry, he was out and about meeting and greeting customers. Great personality, even offered to whip up something special (off the menu) for a group of us. It was the best Deep Fried Peanut Butter and Jelly sandwich ever! Topped with a huge scoop of vanilla ice cream. Go, ask for it! Awesome!   And the Tuscan Chicken Sandwich...2 thumbs up!  This place may become my home away from home.Jaime V.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r214561934-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>214561934</t>
+  </si>
+  <si>
+    <t>07/09/2014</t>
+  </si>
+  <si>
+    <t>Visitor</t>
+  </si>
+  <si>
+    <t>I was there on vacation and stayed at your hotel and it was an excellent stay. Your staff was excellent with my needs.  Ms.Belinda Bowen was very friendly and excellent on things that I asked her and she done of got done for me. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded July 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2014</t>
+  </si>
+  <si>
+    <t>I was there on vacation and stayed at your hotel and it was an excellent stay. Your staff was excellent with my needs.  Ms.Belinda Bowen was very friendly and excellent on things that I asked her and she done of got done for me. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r213514338-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>213514338</t>
+  </si>
+  <si>
+    <t>07/03/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Very accommodating Staff... Hotel is always clean and inviting... Always good food with Chef Jerry's specials and outstanding bar services with Michelle and her staff...This is a one stop shop hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded July 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2014</t>
+  </si>
+  <si>
+    <t>Very accommodating Staff... Hotel is always clean and inviting... Always good food with Chef Jerry's specials and outstanding bar services with Michelle and her staff...This is a one stop shop hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r212831744-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>212831744</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
+  </si>
+  <si>
+    <t>Great Staff, very accomodating</t>
+  </si>
+  <si>
+    <t>Like all the Holiday Inns I have stayed at this one is of the same high quality.  Holiday Inn is never a bad stay.  The Sports Bar and Grill at this particular location went beyond the expectations of any hotel lounge/food service.  I was travelling with a college who is a vegetarian and we asked Michelle, running the bar, for suggestions, she called on Chef Jerry who instead of sending us somewhere else asked us what we would like.  The result was an excellent dinner made to order and unlike anything offered on the menu.  Chef Jerry visited us twice and made sure we were well taken care of.  Thank you Chef Jerry.  Most Excellent!!!  Michelle was one of the nicest bar tenders I have sat across from in a while, remembering us the next night and our drink preferences, great company while eating and enjoying a drink.Thank you to all at the Holiday Inn Houston East-Channelview.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded July 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2014</t>
+  </si>
+  <si>
+    <t>Like all the Holiday Inns I have stayed at this one is of the same high quality.  Holiday Inn is never a bad stay.  The Sports Bar and Grill at this particular location went beyond the expectations of any hotel lounge/food service.  I was travelling with a college who is a vegetarian and we asked Michelle, running the bar, for suggestions, she called on Chef Jerry who instead of sending us somewhere else asked us what we would like.  The result was an excellent dinner made to order and unlike anything offered on the menu.  Chef Jerry visited us twice and made sure we were well taken care of.  Thank you Chef Jerry.  Most Excellent!!!  Michelle was one of the nicest bar tenders I have sat across from in a while, remembering us the next night and our drink preferences, great company while eating and enjoying a drink.Thank you to all at the Holiday Inn Houston East-Channelview.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r209804348-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>209804348</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>excellent stay keep it up</t>
+  </si>
+  <si>
+    <t>I stayed with my family we booked three rooms ,very comfortable bed and pillows very clean rooms staff is friendly and help full the swimming pool is awesome its salt water pool whish is good for your skin ,sauna ,Jacuzzi and fitness center is very impressivemy kids enjoyed a lot ,we order room service its was very nice selection of menu the restaurant have excellent steak and chef special we enjoy a lot the bar tender is very help full for drinks over all this hotel is nice and worth staying there its memorable for us keep it up guys sam &amp; familyMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded June 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2014</t>
+  </si>
+  <si>
+    <t>I stayed with my family we booked three rooms ,very comfortable bed and pillows very clean rooms staff is friendly and help full the swimming pool is awesome its salt water pool whish is good for your skin ,sauna ,Jacuzzi and fitness center is very impressivemy kids enjoyed a lot ,we order room service its was very nice selection of menu the restaurant have excellent steak and chef special we enjoy a lot the bar tender is very help full for drinks over all this hotel is nice and worth staying there its memorable for us keep it up guys sam &amp; familyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r203627538-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>203627538</t>
+  </si>
+  <si>
+    <t>05/01/2014</t>
+  </si>
+  <si>
+    <t>Administrative Assistant Luncheon</t>
+  </si>
+  <si>
+    <t>Time Out Sports Bar &amp; Grill - Chef Jerry is very friendly and makes sure to visit with you during your meal.  The food is very good, 2nd year to have our Administrative Day luncheon there versus a local restaraunt.  Only issue both times - we made reservations for a large group, but the table was not ready so we had to wait for them to set it up, not a good impression, needs improvement.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded May 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2014</t>
+  </si>
+  <si>
+    <t>Time Out Sports Bar &amp; Grill - Chef Jerry is very friendly and makes sure to visit with you during your meal.  The food is very good, 2nd year to have our Administrative Day luncheon there versus a local restaraunt.  Only issue both times - we made reservations for a large group, but the table was not ready so we had to wait for them to set it up, not a good impression, needs improvement.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r198294168-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>198294168</t>
+  </si>
+  <si>
+    <t>03/22/2014</t>
+  </si>
+  <si>
+    <t>Don't stay here!!</t>
+  </si>
+  <si>
+    <t>I stayed here on business for about a week. When I arrived, the lady at the front desk asked for my card for incidentals and accidentally charged my card 715 dollars. It took three days to reverse the charges. On Thursday of that week, I had my stay extended by one day. I was told that I would not need to provide a credit card to check back in. However, when I went to check in, Ish insisted I provide a credit card. He was very rude but promised not to charge my card again. He proceeded to charge my card $250. Later that day, I was awoken with two calls and pounding on my door. Maintenance needed to get in my room, so I was moved. Personnel understood that I slept during the day yet persisted on being rude. Other complaints include-- no free coffee, no continental breakfast, terrible internet, and bad cable tv. This hotel is definitely not worth the price. Worse holiday inn I have ever stayed!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded March 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here on business for about a week. When I arrived, the lady at the front desk asked for my card for incidentals and accidentally charged my card 715 dollars. It took three days to reverse the charges. On Thursday of that week, I had my stay extended by one day. I was told that I would not need to provide a credit card to check back in. However, when I went to check in, Ish insisted I provide a credit card. He was very rude but promised not to charge my card again. He proceeded to charge my card $250. Later that day, I was awoken with two calls and pounding on my door. Maintenance needed to get in my room, so I was moved. Personnel understood that I slept during the day yet persisted on being rude. Other complaints include-- no free coffee, no continental breakfast, terrible internet, and bad cable tv. This hotel is definitely not worth the price. Worse holiday inn I have ever stayed!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r196808965-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>196808965</t>
+  </si>
+  <si>
+    <t>03/09/2014</t>
+  </si>
+  <si>
+    <t>2 week visit</t>
+  </si>
+  <si>
+    <t>I was in Houston for two weeks and stayed in this hotel.  The surrounding area is dirty, but the property itself is great!  I found the desk staff great the whole trip.  They had upgraded me to the jacuzzi suite (pics attached).  There is a nice pool, work out room, and hot tub downstairs.  Nice bar and okay food.  I didn't not find the highway noise a problem because it's a constant white noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded March 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2014</t>
+  </si>
+  <si>
+    <t>I was in Houston for two weeks and stayed in this hotel.  The surrounding area is dirty, but the property itself is great!  I found the desk staff great the whole trip.  They had upgraded me to the jacuzzi suite (pics attached).  There is a nice pool, work out room, and hot tub downstairs.  Nice bar and okay food.  I didn't not find the highway noise a problem because it's a constant white noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r184789941-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>184789941</t>
+  </si>
+  <si>
+    <t>11/15/2013</t>
+  </si>
+  <si>
+    <t>Pretty bad across the board~</t>
+  </si>
+  <si>
+    <t>I stayed here two nights [in November] for a venue that took place somewhere else.
+The Bad:
+When I phoned to make reservations the receptionist was so unprofessional I didn't want to give her my credit card number. Her giggling and inarticulate demeanor added to my sense of unease.
+Even though there were over 70 authors who stayed at the hotel they elected to close the only on-site restaurant at 10 PM with many having no way to go anywhere else for food. 
+There was no maid service provided, only towels (this was unintentional; I asked). That's the first time I've ever had that experience in my life and I've traveled a lot.
+We ate at the restaurant twice and both times waited over an hour for food. One guest that ate with us had the wrong thing served twice and though they got it right on the third time, they never offered to comp the meal- deplorable. 
+Room service was over an hour late.
+The Good:
+They comped the meal for room service tardiness.
+The rooms were nice, though the position of the AC was directly over one of the beds, pouring cold air on the sleeper. Ugh.
+The front desk guy was nice and seemed to feel genuinely bad about the overall chaos of the place.
+Overall, I'd never use this particular hotel again and it left a bad taste for ever using Holiday Inn for future stays...I stayed here two nights [in November] for a venue that took place somewhere else.The Bad:When I phoned to make reservations the receptionist was so unprofessional I didn't want to give her my credit card number. Her giggling and inarticulate demeanor added to my sense of unease.Even though there were over 70 authors who stayed at the hotel they elected to close the only on-site restaurant at 10 PM with many having no way to go anywhere else for food. There was no maid service provided, only towels (this was unintentional; I asked). That's the first time I've ever had that experience in my life and I've traveled a lot.We ate at the restaurant twice and both times waited over an hour for food. One guest that ate with us had the wrong thing served twice and though they got it right on the third time, they never offered to comp the meal- deplorable. Room service was over an hour late.The Good:They comped the meal for room service tardiness.The rooms were nice, though the position of the AC was directly over one of the beds, pouring cold air on the sleeper. Ugh.The front desk guy was nice and seemed to feel genuinely bad about the overall chaos of the place.Overall, I'd never use this particular hotel again and it left a bad taste for ever using Holiday Inn for future stays as there is clearly a quality control issue. So many issues across a multitude of different services... needs to be resolved.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded November 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here two nights [in November] for a venue that took place somewhere else.
+The Bad:
+When I phoned to make reservations the receptionist was so unprofessional I didn't want to give her my credit card number. Her giggling and inarticulate demeanor added to my sense of unease.
+Even though there were over 70 authors who stayed at the hotel they elected to close the only on-site restaurant at 10 PM with many having no way to go anywhere else for food. 
+There was no maid service provided, only towels (this was unintentional; I asked). That's the first time I've ever had that experience in my life and I've traveled a lot.
+We ate at the restaurant twice and both times waited over an hour for food. One guest that ate with us had the wrong thing served twice and though they got it right on the third time, they never offered to comp the meal- deplorable. 
+Room service was over an hour late.
+The Good:
+They comped the meal for room service tardiness.
+The rooms were nice, though the position of the AC was directly over one of the beds, pouring cold air on the sleeper. Ugh.
+The front desk guy was nice and seemed to feel genuinely bad about the overall chaos of the place.
+Overall, I'd never use this particular hotel again and it left a bad taste for ever using Holiday Inn for future stays...I stayed here two nights [in November] for a venue that took place somewhere else.The Bad:When I phoned to make reservations the receptionist was so unprofessional I didn't want to give her my credit card number. Her giggling and inarticulate demeanor added to my sense of unease.Even though there were over 70 authors who stayed at the hotel they elected to close the only on-site restaurant at 10 PM with many having no way to go anywhere else for food. There was no maid service provided, only towels (this was unintentional; I asked). That's the first time I've ever had that experience in my life and I've traveled a lot.We ate at the restaurant twice and both times waited over an hour for food. One guest that ate with us had the wrong thing served twice and though they got it right on the third time, they never offered to comp the meal- deplorable. Room service was over an hour late.The Good:They comped the meal for room service tardiness.The rooms were nice, though the position of the AC was directly over one of the beds, pouring cold air on the sleeper. Ugh.The front desk guy was nice and seemed to feel genuinely bad about the overall chaos of the place.Overall, I'd never use this particular hotel again and it left a bad taste for ever using Holiday Inn for future stays as there is clearly a quality control issue. So many issues across a multitude of different services... needs to be resolved.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r184067154-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>184067154</t>
+  </si>
+  <si>
+    <t>11/08/2013</t>
+  </si>
+  <si>
+    <t>Time Out Sports Bar is can't miss!!</t>
+  </si>
+  <si>
+    <t>Do yourself a favor and if you live in Houston area, go eat lunch or dinner at Time Out. Chef Jerry in a word, AWESOME! Not only is his food absolutely delicious, he is a great guy and unbelievably accommodating. Not on the menu....Chicken Fried Ribeye with bacon jalapeño gravy, holy crap is this good! If your traveling to Houston, Chef Jerry is enough of a reason to stay here but, the rooms are great and employees are all friendly. Chef has daily specials from chili to seafood. Truly a one of a kind dude and an absolute 5 star food experience and in unlikely location. GO GO GO!MoreShow less</t>
+  </si>
+  <si>
+    <t>Do yourself a favor and if you live in Houston area, go eat lunch or dinner at Time Out. Chef Jerry in a word, AWESOME! Not only is his food absolutely delicious, he is a great guy and unbelievably accommodating. Not on the menu....Chicken Fried Ribeye with bacon jalapeño gravy, holy crap is this good! If your traveling to Houston, Chef Jerry is enough of a reason to stay here but, the rooms are great and employees are all friendly. Chef has daily specials from chili to seafood. Truly a one of a kind dude and an absolute 5 star food experience and in unlikely location. GO GO GO!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r183851664-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>183851664</t>
+  </si>
+  <si>
+    <t>11/06/2013</t>
+  </si>
+  <si>
+    <t>Time out sports bar</t>
+  </si>
+  <si>
+    <t>Amazing food. Chief jerry is amazing.  Food is outstanding. Can't get enough. Always has a great attitude and is always having a special of the night. I stayed here for a while (because of work) and I never got tired of his food. MoreShow less</t>
+  </si>
+  <si>
+    <t>Amazing food. Chief jerry is amazing.  Food is outstanding. Can't get enough. Always has a great attitude and is always having a special of the night. I stayed here for a while (because of work) and I never got tired of his food. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r182240306-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>182240306</t>
+  </si>
+  <si>
+    <t>10/24/2013</t>
+  </si>
+  <si>
+    <t>Restaurant - Time Out Sports Bar</t>
+  </si>
+  <si>
+    <t>We eat at the restaurant on a regular basis.  The service is great and the food is excellent.  The atmosphere is very nice and quite so you can carry on a normal conversation.  Chef Jerry is very accommodating if someone has a special request.  They have daily specials which are a unique blended creation from the Chef and the soups are just as good.  If you are in this area or staying at the hotel it is well worth the visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded October 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2013</t>
+  </si>
+  <si>
+    <t>We eat at the restaurant on a regular basis.  The service is great and the food is excellent.  The atmosphere is very nice and quite so you can carry on a normal conversation.  Chef Jerry is very accommodating if someone has a special request.  They have daily specials which are a unique blended creation from the Chef and the soups are just as good.  If you are in this area or staying at the hotel it is well worth the visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r181879171-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>181879171</t>
+  </si>
+  <si>
+    <t>10/21/2013</t>
+  </si>
+  <si>
+    <t>Restaurant experience</t>
+  </si>
+  <si>
+    <t>I wish to start out by saying that the hotel was excellent. The returning aspect of my stay was the restaurant. The chef Jerry is an excellent chef, The menu has great variety. Jerry can cook the most amazing food, but his customer relations skills is what will continue his success no matter where he goes. The man is a master of his skill. I will always return to this hotel to eat at the restaurant.  Thanks so much for a wonderful experience.  I spend a lot of time on the road. When  I am in Houston this is where I want to spend my time... Thanks again Rex Thompson  Reagent Chemical.MoreShow less</t>
+  </si>
+  <si>
+    <t>I wish to start out by saying that the hotel was excellent. The returning aspect of my stay was the restaurant. The chef Jerry is an excellent chef, The menu has great variety. Jerry can cook the most amazing food, but his customer relations skills is what will continue his success no matter where he goes. The man is a master of his skill. I will always return to this hotel to eat at the restaurant.  Thanks so much for a wonderful experience.  I spend a lot of time on the road. When  I am in Houston this is where I want to spend my time... Thanks again Rex Thompson  Reagent Chemical.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r173471563-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>173471563</t>
+  </si>
+  <si>
+    <t>08/22/2013</t>
+  </si>
+  <si>
+    <t>Holiday inn Houston East</t>
+  </si>
+  <si>
+    <t>Clean room, perfect bed to rest but a little dark in the  roomm even thou all light was already turn on, bath and toilet are properly maintain and clean,large LCD TV which are very viewable from bed, good food and very friendly staff especially the chef which checking the costumer satisfaction for the food they serve. 4star rating for me....MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded August 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2013</t>
+  </si>
+  <si>
+    <t>Clean room, perfect bed to rest but a little dark in the  roomm even thou all light was already turn on, bath and toilet are properly maintain and clean,large LCD TV which are very viewable from bed, good food and very friendly staff especially the chef which checking the costumer satisfaction for the food they serve. 4star rating for me....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r158221129-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>158221129</t>
+  </si>
+  <si>
+    <t>04/19/2013</t>
+  </si>
+  <si>
+    <t>Holiday inn staff really are amazing!</t>
+  </si>
+  <si>
+    <t>I had a horrible time with a receptionist last evening when checking in, made the complaint to the manager and they made it right! I also enjoyed a wonderful healthy and delicious meal made by chef Jerry, it was the BEST tasting food I have had in a hotel restaurant! Really a 5 star place!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded April 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2013</t>
+  </si>
+  <si>
+    <t>I had a horrible time with a receptionist last evening when checking in, made the complaint to the manager and they made it right! I also enjoyed a wonderful healthy and delicious meal made by chef Jerry, it was the BEST tasting food I have had in a hotel restaurant! Really a 5 star place!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r157913876-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>157913876</t>
+  </si>
+  <si>
+    <t>04/16/2013</t>
+  </si>
+  <si>
+    <t>East of Houston - safe and nice!</t>
+  </si>
+  <si>
+    <t>Excellent. Very nice decor. Staff from front desk to  restaurant all friendly and helpful. Just stopped. Did not call ahead. Very welcoming. Breakfast was very good. Will stay here again. I am out of the 200 words you want me to write!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded April 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2013</t>
+  </si>
+  <si>
+    <t>Excellent. Very nice decor. Staff from front desk to  restaurant all friendly and helpful. Just stopped. Did not call ahead. Very welcoming. Breakfast was very good. Will stay here again. I am out of the 200 words you want me to write!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r157099717-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>157099717</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Newer Property with good amenities</t>
+  </si>
+  <si>
+    <t>I checked in midweek. I was given a room on the fourth floor facing on the even numbers side of the building. During the evening I found out that this is the side that faces the highway. The bar and restaurant serve good food without overcharging you. All the waitstaff I met were more than willing to help you in anyway possible. Whether it was an extra towel or an extra lime in your drink, they were more than willing to accommodate. On Thursday I was able to switch to a room on the odd numbered side, the side of the building not facing the highway. I had one little incident which, once again, the hotel staff were more than agreeable in accommodating me.Overall my experience at this hotel was good and I would recommend it to anyone who happens to be in the Channelview area of Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded April 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2013</t>
+  </si>
+  <si>
+    <t>I checked in midweek. I was given a room on the fourth floor facing on the even numbers side of the building. During the evening I found out that this is the side that faces the highway. The bar and restaurant serve good food without overcharging you. All the waitstaff I met were more than willing to help you in anyway possible. Whether it was an extra towel or an extra lime in your drink, they were more than willing to accommodate. On Thursday I was able to switch to a room on the odd numbered side, the side of the building not facing the highway. I had one little incident which, once again, the hotel staff were more than agreeable in accommodating me.Overall my experience at this hotel was good and I would recommend it to anyone who happens to be in the Channelview area of Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r123207023-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>123207023</t>
+  </si>
+  <si>
+    <t>01/17/2012</t>
+  </si>
+  <si>
+    <t>I stayed 2 nights on two occasions in November 2011.</t>
+  </si>
+  <si>
+    <t>I've stayed a total of 4 nights at this hotel over 2 occasions in November 2011. It was a wonderful experience. I wish all the Holiday Inns were this nice. I found the staff to be very helpful and the rooms were beautifully decorated. Loved the chaise lounge in my first room and the jacuzzi in my second room. You can request a back side room, if you are concerned about the freeway noise, but I stayed on the front side both times and had no issues. Highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r123185409-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>123185409</t>
+  </si>
+  <si>
+    <t>01/16/2012</t>
+  </si>
+  <si>
+    <t>CENTRAL HEAT &amp; AC!</t>
+  </si>
+  <si>
+    <t>I have stayed twice at this property. Once in March for a week and again in May for 2weeks. (2011). My stay was amazing. The staff was extra friendly. I loved the atmosphere of the hotel in General. The rooms were bigger than what I had expected. The bathroom was the best part! I hate feeling cramped when I'm trying to get ready in the mornings. I did not have this experience here. Rooms were very clean and the bed was OH SO COMFORTABLE! I also loved that they did not have window units for the ac/heat. They were central. The only thing that would have made it better was complimentary breakfast! Overall- Great rooms &amp; friendly staff. Never once had a problem. I'll definitely be returning!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>I have stayed twice at this property. Once in March for a week and again in May for 2weeks. (2011). My stay was amazing. The staff was extra friendly. I loved the atmosphere of the hotel in General. The rooms were bigger than what I had expected. The bathroom was the best part! I hate feeling cramped when I'm trying to get ready in the mornings. I did not have this experience here. Rooms were very clean and the bed was OH SO COMFORTABLE! I also loved that they did not have window units for the ac/heat. They were central. The only thing that would have made it better was complimentary breakfast! Overall- Great rooms &amp; friendly staff. Never once had a problem. I'll definitely be returning!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r118088972-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>118088972</t>
+  </si>
+  <si>
+    <t>09/13/2011</t>
+  </si>
+  <si>
+    <t>I LIKE HOT SHOWERS</t>
+  </si>
+  <si>
+    <t>I was scheduled to stay 4 days,I wanted a hot shower so bad upon my arrival,well that ain't going to happen at this hotel.The water temp was mildly warm at best ,the manager checked it and said his maintenance guy called in and he would not be able to fix it so he moved me to another room,No good the water temp was the same mild warm at best.The manager had left the building by this time.The clerk says sorry I dont't know what to tell you.I cut by visit very short and moved to a diffrent Hotel,They would not offer a discount what so ever.Just Plum Horrible.I think they had the temp way down on purpose to control cost,HORRIBLE ,HORRIBLE,AND NOT WILLING TO HELP YOU.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>I was scheduled to stay 4 days,I wanted a hot shower so bad upon my arrival,well that ain't going to happen at this hotel.The water temp was mildly warm at best ,the manager checked it and said his maintenance guy called in and he would not be able to fix it so he moved me to another room,No good the water temp was the same mild warm at best.The manager had left the building by this time.The clerk says sorry I dont't know what to tell you.I cut by visit very short and moved to a diffrent Hotel,They would not offer a discount what so ever.Just Plum Horrible.I think they had the temp way down on purpose to control cost,HORRIBLE ,HORRIBLE,AND NOT WILLING TO HELP YOU.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r115164654-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>115164654</t>
+  </si>
+  <si>
+    <t>07/08/2011</t>
+  </si>
+  <si>
+    <t>Bad Business All the Way Around....</t>
+  </si>
+  <si>
+    <t>I reserved two rooms at this hotel and never even made it to check in.  The horrible service started two days prior to my arrival.  The issue began behind a rate that I had guaranteed online.  The DOS, Mari and GM, Chris were both no help to me.  OBVIOUSLY THEY ARE PUPPETS AND WHEN THE OWNER PULLS THE STRING THEY JUMP;  I had made the reservation three weeks prior to my daughter's 14th birthday.  I reserved two rooms for her and her friends as well as myself.  On the day of arrival, I received a phone call from the "owner" of the property inwhich he proceeded to curse me out!! And let me know that he would be cancelling my reservations and I was not wanted on his property!  He then told me and IHG that we could  "GO TO H***" !!! ABSOLUTELY THE WORST CUSTOMER SERVICE I HAVE EVER RECEIVED WITHOUT A DOUBT!!!!!!!!!!!! So needless to say, I'M SURE IF THE MANAGEMENT AND OWNERSHIP ARE THIS HORRIBLE, RUDE, AND DISGUSTING THE PROPERTY IS TOO!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>I reserved two rooms at this hotel and never even made it to check in.  The horrible service started two days prior to my arrival.  The issue began behind a rate that I had guaranteed online.  The DOS, Mari and GM, Chris were both no help to me.  OBVIOUSLY THEY ARE PUPPETS AND WHEN THE OWNER PULLS THE STRING THEY JUMP;  I had made the reservation three weeks prior to my daughter's 14th birthday.  I reserved two rooms for her and her friends as well as myself.  On the day of arrival, I received a phone call from the "owner" of the property inwhich he proceeded to curse me out!! And let me know that he would be cancelling my reservations and I was not wanted on his property!  He then told me and IHG that we could  "GO TO H***" !!! ABSOLUTELY THE WORST CUSTOMER SERVICE I HAVE EVER RECEIVED WITHOUT A DOUBT!!!!!!!!!!!! So needless to say, I'M SURE IF THE MANAGEMENT AND OWNERSHIP ARE THIS HORRIBLE, RUDE, AND DISGUSTING THE PROPERTY IS TOO!!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1423,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1455,2486 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>94</v>
+      </c>
+      <c r="X8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>116</v>
+      </c>
+      <c r="X11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>124</v>
+      </c>
+      <c r="X13" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>139</v>
+      </c>
+      <c r="X14" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>139</v>
+      </c>
+      <c r="X15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>139</v>
+      </c>
+      <c r="X16" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>160</v>
+      </c>
+      <c r="X17" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>168</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>160</v>
+      </c>
+      <c r="X18" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>175</v>
+      </c>
+      <c r="O19" t="s">
+        <v>176</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>177</v>
+      </c>
+      <c r="X19" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" t="s">
+        <v>184</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>159</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>185</v>
+      </c>
+      <c r="X20" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" t="s">
+        <v>191</v>
+      </c>
+      <c r="L21" t="s">
+        <v>192</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>175</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>193</v>
+      </c>
+      <c r="X21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" t="s">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s">
+        <v>200</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>201</v>
+      </c>
+      <c r="O22" t="s">
+        <v>103</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>202</v>
+      </c>
+      <c r="X22" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s">
+        <v>209</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>210</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>211</v>
+      </c>
+      <c r="X23" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>215</v>
+      </c>
+      <c r="J24" t="s">
+        <v>216</v>
+      </c>
+      <c r="K24" t="s">
+        <v>217</v>
+      </c>
+      <c r="L24" t="s">
+        <v>218</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>219</v>
+      </c>
+      <c r="X24" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>223</v>
+      </c>
+      <c r="J25" t="s">
+        <v>224</v>
+      </c>
+      <c r="K25" t="s">
+        <v>225</v>
+      </c>
+      <c r="L25" t="s">
+        <v>226</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>227</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>228</v>
+      </c>
+      <c r="X25" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>231</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>232</v>
+      </c>
+      <c r="J26" t="s">
+        <v>233</v>
+      </c>
+      <c r="K26" t="s">
+        <v>234</v>
+      </c>
+      <c r="L26" t="s">
+        <v>235</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>236</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>237</v>
+      </c>
+      <c r="X26" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>240</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>241</v>
+      </c>
+      <c r="J27" t="s">
+        <v>242</v>
+      </c>
+      <c r="K27" t="s">
+        <v>243</v>
+      </c>
+      <c r="L27" t="s">
+        <v>244</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>236</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>237</v>
+      </c>
+      <c r="X27" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>247</v>
+      </c>
+      <c r="J28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K28" t="s">
+        <v>249</v>
+      </c>
+      <c r="L28" t="s">
+        <v>250</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>237</v>
+      </c>
+      <c r="X28" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>253</v>
+      </c>
+      <c r="J29" t="s">
+        <v>254</v>
+      </c>
+      <c r="K29" t="s">
+        <v>255</v>
+      </c>
+      <c r="L29" t="s">
+        <v>256</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>257</v>
+      </c>
+      <c r="O29" t="s">
+        <v>176</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>258</v>
+      </c>
+      <c r="X29" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>261</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>262</v>
+      </c>
+      <c r="J30" t="s">
+        <v>263</v>
+      </c>
+      <c r="K30" t="s">
+        <v>264</v>
+      </c>
+      <c r="L30" t="s">
+        <v>265</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>257</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>258</v>
+      </c>
+      <c r="X30" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>268</v>
+      </c>
+      <c r="J31" t="s">
+        <v>269</v>
+      </c>
+      <c r="K31" t="s">
+        <v>270</v>
+      </c>
+      <c r="L31" t="s">
+        <v>271</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>272</v>
+      </c>
+      <c r="O31" t="s">
+        <v>168</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>273</v>
+      </c>
+      <c r="X31" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>276</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>277</v>
+      </c>
+      <c r="J32" t="s">
+        <v>278</v>
+      </c>
+      <c r="K32" t="s">
+        <v>279</v>
+      </c>
+      <c r="L32" t="s">
+        <v>280</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>281</v>
+      </c>
+      <c r="X32" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>284</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>285</v>
+      </c>
+      <c r="J33" t="s">
+        <v>286</v>
+      </c>
+      <c r="K33" t="s">
+        <v>287</v>
+      </c>
+      <c r="L33" t="s">
+        <v>288</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>289</v>
+      </c>
+      <c r="X33" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>292</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>293</v>
+      </c>
+      <c r="J34" t="s">
+        <v>294</v>
+      </c>
+      <c r="K34" t="s">
+        <v>295</v>
+      </c>
+      <c r="L34" t="s">
+        <v>296</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>297</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>298</v>
+      </c>
+      <c r="X34" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>301</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>302</v>
+      </c>
+      <c r="J35" t="s">
+        <v>303</v>
+      </c>
+      <c r="K35" t="s">
+        <v>304</v>
+      </c>
+      <c r="L35" t="s">
+        <v>305</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>306</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>307</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>308</v>
+      </c>
+      <c r="J36" t="s">
+        <v>309</v>
+      </c>
+      <c r="K36" t="s">
+        <v>310</v>
+      </c>
+      <c r="L36" t="s">
+        <v>311</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>312</v>
+      </c>
+      <c r="O36" t="s">
+        <v>168</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>314</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>315</v>
+      </c>
+      <c r="J37" t="s">
+        <v>316</v>
+      </c>
+      <c r="K37" t="s">
+        <v>317</v>
+      </c>
+      <c r="L37" t="s">
+        <v>318</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>319</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>321</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>322</v>
+      </c>
+      <c r="J38" t="s">
+        <v>323</v>
+      </c>
+      <c r="K38" t="s">
+        <v>324</v>
+      </c>
+      <c r="L38" t="s">
+        <v>325</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>326</v>
+      </c>
+      <c r="O38" t="s">
+        <v>103</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_351.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_351.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="519">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,39 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r582523040-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>55609</t>
+  </si>
+  <si>
+    <t>1910481</t>
+  </si>
+  <si>
+    <t>582523040</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>Great place for the area- well decorated great staff</t>
+  </si>
+  <si>
+    <t>I was in the area for work and needed to find a hotel to do a few interviews. This is by far the nicest hotel in the area. Very modern, clean, friendly staff. I met candidates in their restaurant and the manager was great at hosting me, even though I was not staying in the hotel. I had breakfast and lunch there and the food was very good. I would recommend this hotel.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r571854264-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
   </si>
   <si>
-    <t>55609</t>
-  </si>
-  <si>
-    <t>1910481</t>
-  </si>
-  <si>
     <t>571854264</t>
   </si>
   <si>
@@ -177,7 +198,25 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r567843035-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>567843035</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>The best hotel in the Channelview area</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for close to 2 months very recently when I was in Houston on a business visit. I can say without any hesitation that this was the best hotel in the entire vicinity of Channelview. It had comfortable rooms, secured property, lovely service and lastly great staff to cater to all our needs.Also, the most important thing for me was the restaurant &amp; the bar in the hotel. While the options were limited but for someone who is not comfortable driving left hand cars and not able to explore nearby eateries, this was a boon. The quality of food served too was very good.I would definitely love to stay in this hotel if ever I am there in the same neighborhood for business.For Tesla owners, there are about 8-10 Tesla charging points.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for close to 2 months very recently when I was in Houston on a business visit. I can say without any hesitation that this was the best hotel in the entire vicinity of Channelview. It had comfortable rooms, secured property, lovely service and lastly great staff to cater to all our needs.Also, the most important thing for me was the restaurant &amp; the bar in the hotel. While the options were limited but for someone who is not comfortable driving left hand cars and not able to explore nearby eateries, this was a boon. The quality of food served too was very good.I would definitely love to stay in this hotel if ever I am there in the same neighborhood for business.For Tesla owners, there are about 8-10 Tesla charging points.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r493778825-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
@@ -214,6 +253,57 @@
   </si>
   <si>
     <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r459500888-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>459500888</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Horrible stay</t>
+  </si>
+  <si>
+    <t>We stayed here on December 25 our siblings had full house so decided to stay here since we thought it was going to be a bit peaceful since we had our 11 month old baby. I don't know if the front desk guy was having a bad night but he put us infront of this physco's room and she wouldn't stop screaming all over the place that she was going crazy, i mean seriously the place was empty why would you put us in that situation knowing we had a baby with us I could've asked for a refund but we just decided to leave early in the am. Horrible experienceMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here on December 25 our siblings had full house so decided to stay here since we thought it was going to be a bit peaceful since we had our 11 month old baby. I don't know if the front desk guy was having a bad night but he put us infront of this physco's room and she wouldn't stop screaming all over the place that she was going crazy, i mean seriously the place was empty why would you put us in that situation knowing we had a baby with us I could've asked for a refund but we just decided to leave early in the am. Horrible experienceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r458752491-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>458752491</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t>Very good hotel for short stay</t>
+  </si>
+  <si>
+    <t>I stayed only for 2 days, so my review will be briefThe good:Big rooms, fully equipped with huge tv, coffee maker, even a microwave. Bed was big and a joy to sleep in. Internet access was good, and restaurant more than decent.Hotel staff was very polite and the property was very clean and quiet.The bad: Location. There is nothing interesting around the hotel since it is located next to a busy highway. If you want to go to some mall or place to eat you have to take taxi which charges $10 each way. But that's ok if you stay for short time.in all, a safe choice for short stay if location is not an issueMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>I stayed only for 2 days, so my review will be briefThe good:Big rooms, fully equipped with huge tv, coffee maker, even a microwave. Bed was big and a joy to sleep in. Internet access was good, and restaurant more than decent.Hotel staff was very polite and the property was very clean and quiet.The bad: Location. There is nothing interesting around the hotel since it is located next to a busy highway. If you want to go to some mall or place to eat you have to take taxi which charges $10 each way. But that's ok if you stay for short time.in all, a safe choice for short stay if location is not an issueMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r437212866-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
@@ -235,9 +325,6 @@
 Also, Housekeeping skipped our room on Saturday - It was a little frustrating to come back to a room that hadn't been cleaned and my husband had to go down to the desk to get clean towels.  The same night clerk told us that they don't...First the good - the room was very comfortable, clean and spacious. Even though the weather was starting to cool off (a little) we were thrilled to discover that the AC in our room was amazing! To top it off, this room was the first hotel room I've ever had that also featured a ceiling fan. Obviously I like a cold room so this combined with a quiet hall and good light blocking curtains meant that I slept well.The room was attractive with a huge TV, a mini-fridge and microwave. It also had a comfy chaise lounge.We watched football in the bar on Saturday night and had some appetizers. The food and drinks were great and the bartender was friendly and stayed on top of things - especially after a flood of people came in kind of late and she took care of all of us by herself.We had a frustrating experience getting checked in. The night clerk didn't seem to know his job very well and it took far longer than normal. Then he neglected to give us the hospitality gift or points for being an IHG Spire Elite member. Also, Housekeeping skipped our room on Saturday - It was a little frustrating to come back to a room that hadn't been cleaned and my husband had to go down to the desk to get clean towels.  The same night clerk told us that they don't clean on Saturday's. Since we saw housekeeping on our hall as we were leaving the hotel that morning we were pretty sure that the clerk was misinformed. Regardless of the night clerk and the housekeeping oversight I would still return to this hotel.MoreShow less</t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
@@ -290,6 +377,63 @@
     <t>I stayed at this hotel for one night. Their complimentary wifi is excellent. We were getting late for check-in so we ordered food over the phone and it was ready and packed by the time we reached. The breakfast buffet is not so elaborate and I ordered a-la-carte from the breakfast menu. The stay was good and room was cosy. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r374146115-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>374146115</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Really well satisfied...</t>
+  </si>
+  <si>
+    <t>I've been guest at Holiday Inn Houston East for 10 days and I've found it great. I really want to congratulate the management for the following: fresh appear of the structure, big room well cleaned and full confort. The staff (cleaning, breakfast, reception) is really kind and professional. I've already booked my presence in August for my next training in the zone. Real silence inside hotel (compliments to polite guest too)Really compliments ! Continue on this way !MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Mari V, Director of Sales at Holiday Inn Houston East-Channelview, responded to this reviewResponded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2016</t>
+  </si>
+  <si>
+    <t>I've been guest at Holiday Inn Houston East for 10 days and I've found it great. I really want to congratulate the management for the following: fresh appear of the structure, big room well cleaned and full confort. The staff (cleaning, breakfast, reception) is really kind and professional. I've already booked my presence in August for my next training in the zone. Real silence inside hotel (compliments to polite guest too)Really compliments ! Continue on this way !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r348562860-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>348562860</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Fairly Typical HI</t>
+  </si>
+  <si>
+    <t>Quiet, clean, decent restaurant.  Which is good, because there's nothing around this place for at least a mile in either direction.  Was a little concerned that police were in the parking lot every night, not so discreetly parked in a spot out front.  But it was very quiet, and the employees were nice (especially the bartenders).  Stayed on points so I'm not sure of the cost.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded March 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2016</t>
+  </si>
+  <si>
+    <t>Quiet, clean, decent restaurant.  Which is good, because there's nothing around this place for at least a mile in either direction.  Was a little concerned that police were in the parking lot every night, not so discreetly parked in a spot out front.  But it was very quiet, and the employees were nice (especially the bartenders).  Stayed on points so I'm not sure of the cost.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r342707281-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
   </si>
   <si>
@@ -308,12 +452,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>Mari V, Director of Sales at Holiday Inn Houston East-Channelview, responded to this reviewResponded May 20, 2016</t>
-  </si>
-  <si>
-    <t>Responded May 20, 2016</t>
-  </si>
-  <si>
     <t>I was put up here by the company for whom I was working on assignment.There were many other people there from within the same marine industry and it's obvious the hotel caters to crew members and service reps working within the nearby commercial marine and petrochemical enterprises.The facility is very clean and the rooms are quite, especially if you're fortunate to be assigned on on the backside away from the Interstate immediately in front of the hotel.I've stayed at another well-known hotel a mile or so away and this one appears to offer more bang for the buck, although the other one has a complimentary breakfast.More</t>
   </si>
   <si>
@@ -335,9 +473,6 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r299827129-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
   </si>
   <si>
@@ -356,6 +491,57 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r297101583-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>297101583</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>More of a Motel, than a Hotel</t>
+  </si>
+  <si>
+    <t>I stayed there a night, basically in transit for my flight from Houston. The rooms are ok. The buffet breakfast was very basic and not up to the mark. The A la carte menu was satisfactory. The staff at reception and at the dining area were very helpful and courteous. The location is pretty far from just about anything.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded August 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2015</t>
+  </si>
+  <si>
+    <t>I stayed there a night, basically in transit for my flight from Houston. The rooms are ok. The buffet breakfast was very basic and not up to the mark. The A la carte menu was satisfactory. The staff at reception and at the dining area were very helpful and courteous. The location is pretty far from just about anything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r286713780-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>286713780</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Stay @ Holiday Inn</t>
+  </si>
+  <si>
+    <t>Thoroughly enjoyed my stay @ Holiday Inn. Chef Jerry whipped up some exquisite dishes to tickle our taste buds. Anel &amp; Manager Steve were very enterprising. Staff extremely courteous &amp; friendly &amp; the ambience magical.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Thoroughly enjoyed my stay @ Holiday Inn. Chef Jerry whipped up some exquisite dishes to tickle our taste buds. Anel &amp; Manager Steve were very enterprising. Staff extremely courteous &amp; friendly &amp; the ambience magical.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r274893984-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
   </si>
   <si>
@@ -425,6 +611,63 @@
     <t>The hotel was average, clean and quiet. The best part of the stay is the food at the downstairs restaurant. Chef Jerry and his staff make some very good food. It is not uncommon for Chef Jerry in slower times to be greeting costumers and making sure they are taken care of. He will also make Daily Specials that are 5 star in my opinion. The food made the stay worth while, and I have brought many customers there for business meals because of the quality. Thanks Platinum Member for years.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r266818064-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>266818064</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Expected better from a large chain hotel</t>
+  </si>
+  <si>
+    <t>To start, I checked in just past midnight. The security is very good at that hour. I booked the room in advanced but the check in took much longer than expected. The walls are rather thin. At 0430 this morning I was woken by the person in the next room talking. Although I could not make out what was being said, I could tell it was a man and he must have been on the phone. 
+The internet is not the best. I am here on business, just for the night. Trying to get the websites to display, such as this one, and getting my emails to send, has been challenging. I've seen my Outlook loose connection more than any hotel I've stayed before, and I stay at a lot of hotels this time of year.
+Upon booking I chose the option to include breakfast. I ordered the 3 eggs and sirloin steak. I asked for over-medium eggs. I could tell they were all placed in a skillet and the lid place on for cooking, also they were not runny so it was not what I ordered. The toast was good, but room temperature so the butter wouldn't melt. The potatoes did not appear or taste homemade. But the fresh steak, orange juice and coffee was very good.
+I'll be back in this area again, but due to the hours I work, I won't stay here. 5 1/2 hours of...To start, I checked in just past midnight. The security is very good at that hour. I booked the room in advanced but the check in took much longer than expected. The walls are rather thin. At 0430 this morning I was woken by the person in the next room talking. Although I could not make out what was being said, I could tell it was a man and he must have been on the phone. The internet is not the best. I am here on business, just for the night. Trying to get the websites to display, such as this one, and getting my emails to send, has been challenging. I've seen my Outlook loose connection more than any hotel I've stayed before, and I stay at a lot of hotels this time of year.Upon booking I chose the option to include breakfast. I ordered the 3 eggs and sirloin steak. I asked for over-medium eggs. I could tell they were all placed in a skillet and the lid place on for cooking, also they were not runny so it was not what I ordered. The toast was good, but room temperature so the butter wouldn't melt. The potatoes did not appear or taste homemade. But the fresh steak, orange juice and coffee was very good.I'll be back in this area again, but due to the hours I work, I won't stay here. 5 1/2 hours of sleep with an interruption in the middle of that was not what I call a 4 star hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded April 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2015</t>
+  </si>
+  <si>
+    <t>To start, I checked in just past midnight. The security is very good at that hour. I booked the room in advanced but the check in took much longer than expected. The walls are rather thin. At 0430 this morning I was woken by the person in the next room talking. Although I could not make out what was being said, I could tell it was a man and he must have been on the phone. 
+The internet is not the best. I am here on business, just for the night. Trying to get the websites to display, such as this one, and getting my emails to send, has been challenging. I've seen my Outlook loose connection more than any hotel I've stayed before, and I stay at a lot of hotels this time of year.
+Upon booking I chose the option to include breakfast. I ordered the 3 eggs and sirloin steak. I asked for over-medium eggs. I could tell they were all placed in a skillet and the lid place on for cooking, also they were not runny so it was not what I ordered. The toast was good, but room temperature so the butter wouldn't melt. The potatoes did not appear or taste homemade. But the fresh steak, orange juice and coffee was very good.
+I'll be back in this area again, but due to the hours I work, I won't stay here. 5 1/2 hours of...To start, I checked in just past midnight. The security is very good at that hour. I booked the room in advanced but the check in took much longer than expected. The walls are rather thin. At 0430 this morning I was woken by the person in the next room talking. Although I could not make out what was being said, I could tell it was a man and he must have been on the phone. The internet is not the best. I am here on business, just for the night. Trying to get the websites to display, such as this one, and getting my emails to send, has been challenging. I've seen my Outlook loose connection more than any hotel I've stayed before, and I stay at a lot of hotels this time of year.Upon booking I chose the option to include breakfast. I ordered the 3 eggs and sirloin steak. I asked for over-medium eggs. I could tell they were all placed in a skillet and the lid place on for cooking, also they were not runny so it was not what I ordered. The toast was good, but room temperature so the butter wouldn't melt. The potatoes did not appear or taste homemade. But the fresh steak, orange juice and coffee was very good.I'll be back in this area again, but due to the hours I work, I won't stay here. 5 1/2 hours of sleep with an interruption in the middle of that was not what I call a 4 star hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r260806114-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>260806114</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t>Expected more.....</t>
+  </si>
+  <si>
+    <t>We arrive early around 3:00 p.m., the service at the front desk was extremely slow.  It took a good 15 minutes to pay and get our keys.  Most hotels that I have stayed at seven minutes is forever.  WiFi is free, but service is horrible, very unreliable.  I couldn't watch Netflix in my bed, because there was such a week signal.  The rooms and bathrooms are clean and nice.  I wish the claims of this hotel were true.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded March 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2015</t>
+  </si>
+  <si>
+    <t>We arrive early around 3:00 p.m., the service at the front desk was extremely slow.  It took a good 15 minutes to pay and get our keys.  Most hotels that I have stayed at seven minutes is forever.  WiFi is free, but service is horrible, very unreliable.  I couldn't watch Netflix in my bed, because there was such a week signal.  The rooms and bathrooms are clean and nice.  I wish the claims of this hotel were true.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r244861499-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
   </si>
   <si>
@@ -488,6 +731,60 @@
     <t>We just had our company Christmas party at the Holiday Inn in Channelview on 12-13-14 and I must say, Chef Jerry and the staff at the Holiday Inn did a wonderful job all around. Our group of over 100 really enjoyed Chef Jerry's food and hospitality. He took the time to make sure everything was running smoothly and there was never a shortage on any of the food. Everything tasted delicious and you could tell he put his heart into all he made. The desserts were out of this world good. I would recommend not having second thoughts and have your event there if you are thinking about it. You won't have regrets. Visit the restaurant too, everything there is great including the staff. The rooms are large and clean. I will recommend this place to everyone and hope you give this place a try. We were all impressed. Had a great time. Thank you staff at Holiday Inn!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r234219044-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>234219044</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>A nice hotel with good service and good food.</t>
+  </si>
+  <si>
+    <t>It is a very nice hotel, check in done of friendly and helpful staff. Visited due to flight cancelations at IAH. Hotel has a grate staff, chef came out ad had a chat and asked how the meal was. Best ever "Pub chips". Reception staff helped with transportation to mall and with all other requests.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded October 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2014</t>
+  </si>
+  <si>
+    <t>It is a very nice hotel, check in done of friendly and helpful staff. Visited due to flight cancelations at IAH. Hotel has a grate staff, chef came out ad had a chat and asked how the meal was. Best ever "Pub chips". Reception staff helped with transportation to mall and with all other requests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r220856207-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>220856207</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>A good boutique hotel..</t>
+  </si>
+  <si>
+    <t>Excellent boutique hotel, located very close to where I was working. Friendly &amp; professional crew… Enjoyed the bar, especially the wheat beer and their steaks.. When am there again, will stay here....MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Excellent boutique hotel, located very close to where I was working. Friendly &amp; professional crew… Enjoyed the bar, especially the wheat beer and their steaks.. When am there again, will stay here....More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r216779534-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
   </si>
   <si>
@@ -530,9 +827,6 @@
     <t>I live in the area and dropped by for a drink and a bite at the hotel's Time Out Sports Bar.  When I entered I was floored by the elegance of the hotel.  The sports bar was fresh and smoke free. Bar staff, Michelle and Andrea were excellent hosts, very attentive and friendly. One my second visit I met Chef Jerry, he was out and about meeting and greeting customers. Great personality, even offered to whip up something special (off the menu) for a group of us. It was the best Deep Fried Peanut Butter and Jelly sandwich ever! Topped with a huge scoop of vanilla ice cream. Go, ask for it! Awesome!   And the Tuscan Chicken Sandwich...2 thumbs up!  This place may become my home away from home.Jaime V.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>I live in the area and dropped by for a drink and a bite at the hotel's Time Out Sports Bar.  When I entered I was floored by the elegance of the hotel.  The sports bar was fresh and smoke free. Bar staff, Michelle and Andrea were excellent hosts, very attentive and friendly. One my second visit I met Chef Jerry, he was out and about meeting and greeting customers. Great personality, even offered to whip up something special (off the menu) for a group of us. It was the best Deep Fried Peanut Butter and Jelly sandwich ever! Topped with a huge scoop of vanilla ice cream. Go, ask for it! Awesome!   And the Tuscan Chicken Sandwich...2 thumbs up!  This place may become my home away from home.Jaime V.More</t>
   </si>
   <si>
@@ -566,6 +860,39 @@
     <t>I was there on vacation and stayed at your hotel and it was an excellent stay. Your staff was excellent with my needs.  Ms.Belinda Bowen was very friendly and excellent on things that I asked her and she done of got done for me. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r214546912-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>214546912</t>
+  </si>
+  <si>
+    <t>Ad. Min. Asst</t>
+  </si>
+  <si>
+    <t>Your Inn made my business trip EXCELLENT. The staff was excellent with my needs while I was there. Ms.Belinda Bowen was Excellent and Professional at everything she helped me with. I will be staying there again if and when I have to come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Your Inn made my business trip EXCELLENT. The staff was excellent with my needs while I was there. Ms.Belinda Bowen was Excellent and Professional at everything she helped me with. I will be staying there again if and when I have to come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r214326170-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>214326170</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>I would recommend this place to anyone! The chef was great! The service was friendly and was all about customer service! The sales manager there knew exactly what I needed and wanted..She fulfilled all of my request. I would definitely go back everytime! MoreShow less</t>
+  </si>
+  <si>
+    <t>I would recommend this place to anyone! The chef was great! The service was friendly and was all about customer service! The sales manager there knew exactly what I needed and wanted..She fulfilled all of my request. I would definitely go back everytime! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r213514338-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
   </si>
   <si>
@@ -641,6 +968,39 @@
     <t>I stayed with my family we booked three rooms ,very comfortable bed and pillows very clean rooms staff is friendly and help full the swimming pool is awesome its salt water pool whish is good for your skin ,sauna ,Jacuzzi and fitness center is very impressivemy kids enjoyed a lot ,we order room service its was very nice selection of menu the restaurant have excellent steak and chef special we enjoy a lot the bar tender is very help full for drinks over all this hotel is nice and worth staying there its memorable for us keep it up guys sam &amp; familyMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r209631881-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>209631881</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>Outstanding Sports Bar and Grill; Great Hotel</t>
+  </si>
+  <si>
+    <t>Too many bad reviews for a "one time" bad experience.  Chef Jerry does an outstanding job every time we come into town.  It's not too often you have someone with Jerry's attitude come to your table and share a laugh or two with you and your company at hand.  He does that and takes the time to whip up some appetizers before dinner.  Always a surprise and ALWAYS great.  Nothing bad to say about any of the food we have ever been served.  It is outstanding.  The staff in the bar are just as friendly and never have to be asked to come over and get us something else.  Hotel staff are just as friendly and hospitable.  This is our place when we have a scheduled meeting or training session.  Oh and by the way, it's in on Highway 146, Baytown area.  We chose to stay here because of the service and great Chef, food and staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>Too many bad reviews for a "one time" bad experience.  Chef Jerry does an outstanding job every time we come into town.  It's not too often you have someone with Jerry's attitude come to your table and share a laugh or two with you and your company at hand.  He does that and takes the time to whip up some appetizers before dinner.  Always a surprise and ALWAYS great.  Nothing bad to say about any of the food we have ever been served.  It is outstanding.  The staff in the bar are just as friendly and never have to be asked to come over and get us something else.  Hotel staff are just as friendly and hospitable.  This is our place when we have a scheduled meeting or training session.  Oh and by the way, it's in on Highway 146, Baytown area.  We chose to stay here because of the service and great Chef, food and staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r209548076-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>209548076</t>
+  </si>
+  <si>
+    <t>Nice hotel and great restaurant</t>
+  </si>
+  <si>
+    <t>Hotel was very clean and the staff was very friendly. I stayed there twice in the last few weeks and have nothing to complain about the staff and the restaurant.The restaurant was very clean and the staff was A+++. Chef Jerry made us some great appetizers and the supper was very good, top notch. Made us feell right at home. I would definitely recommend this hotel and restaurant to anyone planning to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel was very clean and the staff was very friendly. I stayed there twice in the last few weeks and have nothing to complain about the staff and the restaurant.The restaurant was very clean and the staff was A+++. Chef Jerry made us some great appetizers and the supper was very good, top notch. Made us feell right at home. I would definitely recommend this hotel and restaurant to anyone planning to stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r203627538-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
   </si>
   <si>
@@ -656,9 +1016,6 @@
     <t>Time Out Sports Bar &amp; Grill - Chef Jerry is very friendly and makes sure to visit with you during your meal.  The food is very good, 2nd year to have our Administrative Day luncheon there versus a local restaraunt.  Only issue both times - we made reservations for a large group, but the table was not ready so we had to wait for them to set it up, not a good impression, needs improvement.MoreShow less</t>
   </si>
   <si>
-    <t>April 2014</t>
-  </si>
-  <si>
     <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded May 13, 2014</t>
   </si>
   <si>
@@ -717,6 +1074,54 @@
   </si>
   <si>
     <t>I was in Houston for two weeks and stayed in this hotel.  The surrounding area is dirty, but the property itself is great!  I found the desk staff great the whole trip.  They had upgraded me to the jacuzzi suite (pics attached).  There is a nice pool, work out room, and hot tub downstairs.  Nice bar and okay food.  I didn't not find the highway noise a problem because it's a constant white noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r191722060-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>191722060</t>
+  </si>
+  <si>
+    <t>01/22/2014</t>
+  </si>
+  <si>
+    <t>Very Good Property</t>
+  </si>
+  <si>
+    <t>Stayed at this property for three nights in January while my son was receiving some medical attention. Overall, the hotel is very good, although with some minor problems. The heat exchanger in the guestroom cycled on and off quite rapidly and disturbed our sleep the first night. We then just turned it off, and solved the problem. Guestroom service by housekeeping was very good and timely. The Front Desk attendants were attentive and responsive to our requests. Surprisingly, the restaurant was quite good, with ample portions of well-prepared and tasty food. The Chef knows how to cook a steak! Bar service was very well done. Did not use WiFi, Fitness Center or pool so can't comment. If in that area again, I would not hesitate to stay at this property. Good value for the cost.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded January 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2014</t>
+  </si>
+  <si>
+    <t>Stayed at this property for three nights in January while my son was receiving some medical attention. Overall, the hotel is very good, although with some minor problems. The heat exchanger in the guestroom cycled on and off quite rapidly and disturbed our sleep the first night. We then just turned it off, and solved the problem. Guestroom service by housekeeping was very good and timely. The Front Desk attendants were attentive and responsive to our requests. Surprisingly, the restaurant was quite good, with ample portions of well-prepared and tasty food. The Chef knows how to cook a steak! Bar service was very well done. Did not use WiFi, Fitness Center or pool so can't comment. If in that area again, I would not hesitate to stay at this property. Good value for the cost.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r190600672-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>190600672</t>
+  </si>
+  <si>
+    <t>01/12/2014</t>
+  </si>
+  <si>
+    <t>Got the basics right</t>
+  </si>
+  <si>
+    <t>Stayed for 3 night in this hotel. Location is along the highway, my room was facing the highway so you hear the traffic. Room was fine and clean, everything worked well, fast &amp; free Wifi, complimentary tea &amp; coffee in room available. Staff was helpful. Buffet &amp; a la carte breakfast a little lackluster. Ample parking available. Overall clean &amp; tidy hotel, would come again. Sound proofed windows would make a real difference in this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mari V, Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded January 24, 2014</t>
+  </si>
+  <si>
+    <t>Stayed for 3 night in this hotel. Location is along the highway, my room was facing the highway so you hear the traffic. Room was fine and clean, everything worked well, fast &amp; free Wifi, complimentary tea &amp; coffee in room available. Staff was helpful. Buffet &amp; a la carte breakfast a little lackluster. Ample parking available. Overall clean &amp; tidy hotel, would come again. Sound proofed windows would make a real difference in this location.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r184789941-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
@@ -804,6 +1209,51 @@
     <t>Amazing food. Chief jerry is amazing.  Food is outstanding. Can't get enough. Always has a great attitude and is always having a special of the night. I stayed here for a while (because of work) and I never got tired of his food. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r182874738-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>182874738</t>
+  </si>
+  <si>
+    <t>10/29/2013</t>
+  </si>
+  <si>
+    <t>Ribeye was excellant and Chef Jerry provided outstanding service.</t>
+  </si>
+  <si>
+    <t>I will be back for another Ribeye!!!! The Holliday Inn is lucky to have Chef Jerry the food and service was amazing and I will defiantly return the next time Im in town.  I have to agree with the other reviews Chef Jerry's customer service and willingness to please is great to experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded November 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2013</t>
+  </si>
+  <si>
+    <t>I will be back for another Ribeye!!!! The Holliday Inn is lucky to have Chef Jerry the food and service was amazing and I will defiantly return the next time Im in town.  I have to agree with the other reviews Chef Jerry's customer service and willingness to please is great to experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r182735108-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>182735108</t>
+  </si>
+  <si>
+    <t>10/28/2013</t>
+  </si>
+  <si>
+    <t>Restraunt &amp; Time Out Bar</t>
+  </si>
+  <si>
+    <t>I stay at the Hotel 1 week out of every month and i have to say that they make it enjoyable to be there. from Machele at the bar to Jerry. The food is so good even the PENUT soup that he made wasnt bad. Thanks everyone for makeing my stay verry good.THANKS TRAVISMoreShow less</t>
+  </si>
+  <si>
+    <t>I stay at the Hotel 1 week out of every month and i have to say that they make it enjoyable to be there. from Machele at the bar to Jerry. The food is so good even the PENUT soup that he made wasnt bad. Thanks everyone for makeing my stay verry good.THANKS TRAVISMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r182240306-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
   </si>
   <si>
@@ -819,9 +1269,6 @@
     <t>We eat at the restaurant on a regular basis.  The service is great and the food is excellent.  The atmosphere is very nice and quite so you can carry on a normal conversation.  Chef Jerry is very accommodating if someone has a special request.  They have daily specials which are a unique blended creation from the Chef and the soups are just as good.  If you are in this area or staying at the hotel it is well worth the visit.MoreShow less</t>
   </si>
   <si>
-    <t>October 2013</t>
-  </si>
-  <si>
     <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded October 25, 2013</t>
   </si>
   <si>
@@ -876,6 +1323,61 @@
     <t>Clean room, perfect bed to rest but a little dark in the  roomm even thou all light was already turn on, bath and toilet are properly maintain and clean,large LCD TV which are very viewable from bed, good food and very friendly staff especially the chef which checking the costumer satisfaction for the food they serve. 4star rating for me....More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r159385534-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>159385534</t>
+  </si>
+  <si>
+    <t>05/01/2013</t>
+  </si>
+  <si>
+    <t>New and Clean</t>
+  </si>
+  <si>
+    <t>Stayed here on our way from the Grand Canyon to the Gulf Coast. We had not reserved a room in advance because we weren't sure how far we'd make it across the vast state of Texas. The hotel is a newer property with the "modern Holiday Inn" style, and since it had a bar/restaurant on-site, we decided it'd be a good time to stop for the night. Although not a large Holiday Inn by most standards, it was extremely clean and well-decorated. The rooms were somewhat funky in that the decor was REALLY bright and REALLY colorful, but at 2 a.m. when your eyes are closed it doesn't matter anyway! The restaurant and bar have a trendy style... it sort of feels like you're in a restaurant in the middle of a big, urban business district. Our waitress/bartender seemed like an old friend by the time we returned to our room for the evening.
+Location is a bit "iffy". Couldn't really tell too much about the surrounding area, but it looked a little depressed. Of course, the weather was a bit dismal the evening we arrived anyway, so that may have had something to do with it. Still not sure I would've ventured too far after dark, though.
+Bathroom was big, well equipped, and had fantastic water pressure. The beds were a bit firm for me, but I slept well nonetheless. I especially like a room that can feel Arctic...Stayed here on our way from the Grand Canyon to the Gulf Coast. We had not reserved a room in advance because we weren't sure how far we'd make it across the vast state of Texas. The hotel is a newer property with the "modern Holiday Inn" style, and since it had a bar/restaurant on-site, we decided it'd be a good time to stop for the night. Although not a large Holiday Inn by most standards, it was extremely clean and well-decorated. The rooms were somewhat funky in that the decor was REALLY bright and REALLY colorful, but at 2 a.m. when your eyes are closed it doesn't matter anyway! The restaurant and bar have a trendy style... it sort of feels like you're in a restaurant in the middle of a big, urban business district. Our waitress/bartender seemed like an old friend by the time we returned to our room for the evening.Location is a bit "iffy". Couldn't really tell too much about the surrounding area, but it looked a little depressed. Of course, the weather was a bit dismal the evening we arrived anyway, so that may have had something to do with it. Still not sure I would've ventured too far after dark, though.Bathroom was big, well equipped, and had fantastic water pressure. The beds were a bit firm for me, but I slept well nonetheless. I especially like a room that can feel Arctic when the A/C is cranked, and this was definitely the case here.Only drawback: this location seems to rely pretty heavily on fragrances. I know a lot of hotels try to do that nowadays, but in this case it was just short of being overpowering. The fragrance wasn't bad by any means, but there was just so MUCH of it. That's the only thing that kept me from giving this hotel a higher rating. I'm not sensitive to smells, but those who are may not be able to stay here. Would stay again, and would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded May 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here on our way from the Grand Canyon to the Gulf Coast. We had not reserved a room in advance because we weren't sure how far we'd make it across the vast state of Texas. The hotel is a newer property with the "modern Holiday Inn" style, and since it had a bar/restaurant on-site, we decided it'd be a good time to stop for the night. Although not a large Holiday Inn by most standards, it was extremely clean and well-decorated. The rooms were somewhat funky in that the decor was REALLY bright and REALLY colorful, but at 2 a.m. when your eyes are closed it doesn't matter anyway! The restaurant and bar have a trendy style... it sort of feels like you're in a restaurant in the middle of a big, urban business district. Our waitress/bartender seemed like an old friend by the time we returned to our room for the evening.
+Location is a bit "iffy". Couldn't really tell too much about the surrounding area, but it looked a little depressed. Of course, the weather was a bit dismal the evening we arrived anyway, so that may have had something to do with it. Still not sure I would've ventured too far after dark, though.
+Bathroom was big, well equipped, and had fantastic water pressure. The beds were a bit firm for me, but I slept well nonetheless. I especially like a room that can feel Arctic...Stayed here on our way from the Grand Canyon to the Gulf Coast. We had not reserved a room in advance because we weren't sure how far we'd make it across the vast state of Texas. The hotel is a newer property with the "modern Holiday Inn" style, and since it had a bar/restaurant on-site, we decided it'd be a good time to stop for the night. Although not a large Holiday Inn by most standards, it was extremely clean and well-decorated. The rooms were somewhat funky in that the decor was REALLY bright and REALLY colorful, but at 2 a.m. when your eyes are closed it doesn't matter anyway! The restaurant and bar have a trendy style... it sort of feels like you're in a restaurant in the middle of a big, urban business district. Our waitress/bartender seemed like an old friend by the time we returned to our room for the evening.Location is a bit "iffy". Couldn't really tell too much about the surrounding area, but it looked a little depressed. Of course, the weather was a bit dismal the evening we arrived anyway, so that may have had something to do with it. Still not sure I would've ventured too far after dark, though.Bathroom was big, well equipped, and had fantastic water pressure. The beds were a bit firm for me, but I slept well nonetheless. I especially like a room that can feel Arctic when the A/C is cranked, and this was definitely the case here.Only drawback: this location seems to rely pretty heavily on fragrances. I know a lot of hotels try to do that nowadays, but in this case it was just short of being overpowering. The fragrance wasn't bad by any means, but there was just so MUCH of it. That's the only thing that kept me from giving this hotel a higher rating. I'm not sensitive to smells, but those who are may not be able to stay here. Would stay again, and would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r159195106-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>159195106</t>
+  </si>
+  <si>
+    <t>04/29/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel near Baytown,TX.</t>
+  </si>
+  <si>
+    <t>We looked online for a nice hotel near Baytown,TX...not much! But The Holiday Inn Houston East is super nice, good food, very clean, very friendly staff ! We were in town from Ohio for the drag races at Royal Purple Raceway and this hotel in only 15-20 minutes from the track on I-10 made it a easy drive. Some of the Top Fuel race teams also thought this place worked very well! There are a few places two exits closer to the track, but not near as nice!MoreShow less</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded May 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2013</t>
+  </si>
+  <si>
+    <t>We looked online for a nice hotel near Baytown,TX...not much! But The Holiday Inn Houston East is super nice, good food, very clean, very friendly staff ! We were in town from Ohio for the drag races at Royal Purple Raceway and this hotel in only 15-20 minutes from the track on I-10 made it a easy drive. Some of the Top Fuel race teams also thought this place worked very well! There are a few places two exits closer to the track, but not near as nice!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r158221129-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
   </si>
   <si>
@@ -939,9 +1441,6 @@
     <t>I checked in midweek. I was given a room on the fourth floor facing on the even numbers side of the building. During the evening I found out that this is the side that faces the highway. The bar and restaurant serve good food without overcharging you. All the waitstaff I met were more than willing to help you in anyway possible. Whether it was an extra towel or an extra lime in your drink, they were more than willing to accommodate. On Thursday I was able to switch to a room on the odd numbered side, the side of the building not facing the highway. I had one little incident which, once again, the hotel staff were more than agreeable in accommodating me.Overall my experience at this hotel was good and I would recommend it to anyone who happens to be in the Channelview area of Houston.MoreShow less</t>
   </si>
   <si>
-    <t>April 2013</t>
-  </si>
-  <si>
     <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded April 10, 2013</t>
   </si>
   <si>
@@ -951,6 +1450,54 @@
     <t>I checked in midweek. I was given a room on the fourth floor facing on the even numbers side of the building. During the evening I found out that this is the side that faces the highway. The bar and restaurant serve good food without overcharging you. All the waitstaff I met were more than willing to help you in anyway possible. Whether it was an extra towel or an extra lime in your drink, they were more than willing to accommodate. On Thursday I was able to switch to a room on the odd numbered side, the side of the building not facing the highway. I had one little incident which, once again, the hotel staff were more than agreeable in accommodating me.Overall my experience at this hotel was good and I would recommend it to anyone who happens to be in the Channelview area of Houston.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r155927783-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>155927783</t>
+  </si>
+  <si>
+    <t>03/28/2013</t>
+  </si>
+  <si>
+    <t>Welcome to Channelview!</t>
+  </si>
+  <si>
+    <t>I have to base my review on business and personal! I have never stayed at the hotel, however, I have been to several functions with the Chamber of Commerce, hotel hosted events and to the sports bar with friends. The food has always been a five star, Chef Jerry and his staff have the presentation and selection down to an art. If you have an event in mind, he can be very creative or traditional. I have also known companies that have used the hotel for meetings and staff to stay there and the feedback has always been positive.And..a few friends had been to a play celebrating a birthday and I suggested we stop by the sports bar afterwards. First, my friends (none from this area) were surprised at how nice the hotel was. I hate to call it a bar area, it's tasteful and more upscale...the service was wonderful. The perfect ending to a great evening!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston East-Channelview, responded to this reviewResponded April 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2013</t>
+  </si>
+  <si>
+    <t>I have to base my review on business and personal! I have never stayed at the hotel, however, I have been to several functions with the Chamber of Commerce, hotel hosted events and to the sports bar with friends. The food has always been a five star, Chef Jerry and his staff have the presentation and selection down to an art. If you have an event in mind, he can be very creative or traditional. I have also known companies that have used the hotel for meetings and staff to stay there and the feedback has always been positive.And..a few friends had been to a play celebrating a birthday and I suggested we stop by the sports bar afterwards. First, my friends (none from this area) were surprised at how nice the hotel was. I hate to call it a bar area, it's tasteful and more upscale...the service was wonderful. The perfect ending to a great evening!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r143153299-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>143153299</t>
+  </si>
+  <si>
+    <t>10/18/2012</t>
+  </si>
+  <si>
+    <t>Ultra Modern, Squeaky Clean, ZZZZZzzzzzzzzzz...</t>
+  </si>
+  <si>
+    <t>I stayed here for a week on business. The rooms have very modern decor, nicely fu8rnished. There is a corner couch and computer table that is the most creative solution I have seen for a comfortable working area in a hotel room. (See photo.) The whole place is way cleaner than average, both rooms and public areas. Bed was comfortable and quiet -- there was a crying baby next door to me and I didn't know it until somebody opened the door to that room while I was in the hallway.The onsite restaurant has good quality, variety and reasonable prices. The food for my business function was excellent. In all the events I have managed over the years I have never before had the chef come out every morning to talk to me about the day's menu and any special touches we wanted, We had two vegetarians out of about thirty people, and every day he talked to them about what they would like for their special fare. The staff fell all over themselves not only to meet requests, bot to ask and anticipate anything we hadn't thought of yet. The in room wireless connects easily. It dropped offline several times during the week, but was faster than average.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>I stayed here for a week on business. The rooms have very modern decor, nicely fu8rnished. There is a corner couch and computer table that is the most creative solution I have seen for a comfortable working area in a hotel room. (See photo.) The whole place is way cleaner than average, both rooms and public areas. Bed was comfortable and quiet -- there was a crying baby next door to me and I didn't know it until somebody opened the door to that room while I was in the hallway.The onsite restaurant has good quality, variety and reasonable prices. The food for my business function was excellent. In all the events I have managed over the years I have never before had the chef come out every morning to talk to me about the day's menu and any special touches we wanted, We had two vegetarians out of about thirty people, and every day he talked to them about what they would like for their special fare. The staff fell all over themselves not only to meet requests, bot to ask and anticipate anything we hadn't thought of yet. The in room wireless connects easily. It dropped offline several times during the week, but was faster than average.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r123207023-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
   </si>
   <si>
@@ -1011,6 +1558,45 @@
     <t>I was scheduled to stay 4 days,I wanted a hot shower so bad upon my arrival,well that ain't going to happen at this hotel.The water temp was mildly warm at best ,the manager checked it and said his maintenance guy called in and he would not be able to fix it so he moved me to another room,No good the water temp was the same mild warm at best.The manager had left the building by this time.The clerk says sorry I dont't know what to tell you.I cut by visit very short and moved to a diffrent Hotel,They would not offer a discount what so ever.Just Plum Horrible.I think they had the temp way down on purpose to control cost,HORRIBLE ,HORRIBLE,AND NOT WILLING TO HELP YOU.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r115591998-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>115591998</t>
+  </si>
+  <si>
+    <t>07/20/2011</t>
+  </si>
+  <si>
+    <t>New Hotel -Great Service</t>
+  </si>
+  <si>
+    <t>Our family was traveling from Louisiana to New Mexico so we stopped at the Holiday Inn Houston East (which is in a small town outside of Houston) and our stay was awsome!The hotel is brand new and the staff was great form the front desk staff ,waitess and waiter both morning and evening! The kids loved the indoor heated pool that and my husband love the sauna that relaxed him from all the driving we did! Great job ,we plan on staying again on our way back!!</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r115378287-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
+  </si>
+  <si>
+    <t>115378287</t>
+  </si>
+  <si>
+    <t>07/14/2011</t>
+  </si>
+  <si>
+    <t>horrible service all around</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for one night back in April and it was the worst experience I ever had from any hotel that I've stayed at before. The hotel looks really nice from the outside and inside, but the service is just completely horrible.  I arrived around 4pm and the check in was very nice. I believe the young lady that checked me was Kara or something similar to that. She was very sweet and helpful and told me everything about the hotel and my room. That is the only thing i can stay that was positive about this hotel. The restaurant is not even close to a sports bar, yes there are several tv's and a bar at the restaurant, but it's not even close to a actual sports bar. I was very disappointed. Plus three of the tv's weren't even working, and I wanted to watch some of the nba playoffs that was going on, but the bartender and waitress didn't know how to get the TV to work. They had to get there manager name Chris, who I believe is the GM of the hotel to fix the tv's and he was having a tough time to. He didn't even apologize for the incident. The food at restaurant isn't even worth the price. I ordered a bacon cheeseburger and paid close to $10 for it. Are you kidding me? Afterwards, I went back to my room...I stayed at this hotel for one night back in April and it was the worst experience I ever had from any hotel that I've stayed at before. The hotel looks really nice from the outside and inside, but the service is just completely horrible.  I arrived around 4pm and the check in was very nice. I believe the young lady that checked me was Kara or something similar to that. She was very sweet and helpful and told me everything about the hotel and my room. That is the only thing i can stay that was positive about this hotel. The restaurant is not even close to a sports bar, yes there are several tv's and a bar at the restaurant, but it's not even close to a actual sports bar. I was very disappointed. Plus three of the tv's weren't even working, and I wanted to watch some of the nba playoffs that was going on, but the bartender and waitress didn't know how to get the TV to work. They had to get there manager name Chris, who I believe is the GM of the hotel to fix the tv's and he was having a tough time to. He didn't even apologize for the incident. The food at restaurant isn't even worth the price. I ordered a bacon cheeseburger and paid close to $10 for it. Are you kidding me? Afterwards, I went back to my room and took a watched tv for a little bit and the tv up there had duplicate stations. I had 2 CBS's 2 ABC's 2 NBC's and so on. I called the front desk and talked a gentleman who didn't speak good English and all he told me was that he was sorry and couldn't do anything about it. He didn't even resolve the issue or even offered a room change for me or anything. Afterwards, I decided to get rid of my frustration, I would just go to the pool and hot tub and sauna to relax. I was very disappointed in the size of the pool, its not even that big, and it was very warm the whole time. I called the front desk and the same gentlemen who i talked to about my tv answered the phone and told him about how warm the pool was and all i got from him was an apology and that he was going to talk to his manager about it in the morning but that was going to be too late, i was going to be gone in the morning. The hot tub wasn't even hot, it was just a cool temperature. I was very disappointed there too. The sauna was ok, i was in it for 10 minutes and didn't even get really red like i was hoping too. Afterwards, I decided to go back to my room, but I was locked out of my room. So I went by the front desk and tried to get a new key from the same gentlemen. He was so hard to understand. He asked for a form of ID, and my room # and unfortunately i didn't have either one. I understand hotels do this for security reasons, but after giving him my name and my address and room number he finally gave me a new key. Unfortunate the key he gave me didn't even work for my room, so i had to come back down. I wasn't very happy at the moment and he apologized for his mistake. He also sent some security guy with me to make sure my room key worked. This security guy was just creepy. He was a very large heavy set guy with several tattoos and a tattoo by his eye. I was very skeptic about this guy.  Eventually my key to my room worked. The sheets on the bed were very hard to sleep on, i never experienced this before in any hotels that I've stayed at. When the next morning arrived, I went back down to the restaurant for breakfast, and ordered an omelette. And coffee the waitress messed up on both of my orders. My coffee was cold and she gave me scrambled eggs and toast instead of an omelette. Is it really that hard to take someone's order? Also when I checked out, I noticed that my room was $159 plus tax. $159 for staying at this hotel. Are you kidding me? That is outrageous. A hotel room at this hotel is not worth $159 plus tax. If I'm going to be paying that much to stay at a hotel like that I would've stayed at a hotel in downtown Houston, not in Channelview. Overall, this hotel is not worth the stay and money. The staff at the hotel other than the young girl that checked me in does not have great customer service skills and its not worth the $$ to stay at. The food was below average, the pool, hot tub, sauna and my duplicate TV stations was all in all a disappointment. I will tell all my friends and family to stay away from this hotel. Also I noticed when I was at this hotel, there  was very little cars in the parking lot. Maybe if you guys reduce the rate to an affordable price instead of $159 y'all will get some people staying there.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for one night back in April and it was the worst experience I ever had from any hotel that I've stayed at before. The hotel looks really nice from the outside and inside, but the service is just completely horrible.  I arrived around 4pm and the check in was very nice. I believe the young lady that checked me was Kara or something similar to that. She was very sweet and helpful and told me everything about the hotel and my room. That is the only thing i can stay that was positive about this hotel. The restaurant is not even close to a sports bar, yes there are several tv's and a bar at the restaurant, but it's not even close to a actual sports bar. I was very disappointed. Plus three of the tv's weren't even working, and I wanted to watch some of the nba playoffs that was going on, but the bartender and waitress didn't know how to get the TV to work. They had to get there manager name Chris, who I believe is the GM of the hotel to fix the tv's and he was having a tough time to. He didn't even apologize for the incident. The food at restaurant isn't even worth the price. I ordered a bacon cheeseburger and paid close to $10 for it. Are you kidding me? Afterwards, I went back to my room...I stayed at this hotel for one night back in April and it was the worst experience I ever had from any hotel that I've stayed at before. The hotel looks really nice from the outside and inside, but the service is just completely horrible.  I arrived around 4pm and the check in was very nice. I believe the young lady that checked me was Kara or something similar to that. She was very sweet and helpful and told me everything about the hotel and my room. That is the only thing i can stay that was positive about this hotel. The restaurant is not even close to a sports bar, yes there are several tv's and a bar at the restaurant, but it's not even close to a actual sports bar. I was very disappointed. Plus three of the tv's weren't even working, and I wanted to watch some of the nba playoffs that was going on, but the bartender and waitress didn't know how to get the TV to work. They had to get there manager name Chris, who I believe is the GM of the hotel to fix the tv's and he was having a tough time to. He didn't even apologize for the incident. The food at restaurant isn't even worth the price. I ordered a bacon cheeseburger and paid close to $10 for it. Are you kidding me? Afterwards, I went back to my room and took a watched tv for a little bit and the tv up there had duplicate stations. I had 2 CBS's 2 ABC's 2 NBC's and so on. I called the front desk and talked a gentleman who didn't speak good English and all he told me was that he was sorry and couldn't do anything about it. He didn't even resolve the issue or even offered a room change for me or anything. Afterwards, I decided to get rid of my frustration, I would just go to the pool and hot tub and sauna to relax. I was very disappointed in the size of the pool, its not even that big, and it was very warm the whole time. I called the front desk and the same gentlemen who i talked to about my tv answered the phone and told him about how warm the pool was and all i got from him was an apology and that he was going to talk to his manager about it in the morning but that was going to be too late, i was going to be gone in the morning. The hot tub wasn't even hot, it was just a cool temperature. I was very disappointed there too. The sauna was ok, i was in it for 10 minutes and didn't even get really red like i was hoping too. Afterwards, I decided to go back to my room, but I was locked out of my room. So I went by the front desk and tried to get a new key from the same gentlemen. He was so hard to understand. He asked for a form of ID, and my room # and unfortunately i didn't have either one. I understand hotels do this for security reasons, but after giving him my name and my address and room number he finally gave me a new key. Unfortunate the key he gave me didn't even work for my room, so i had to come back down. I wasn't very happy at the moment and he apologized for his mistake. He also sent some security guy with me to make sure my room key worked. This security guy was just creepy. He was a very large heavy set guy with several tattoos and a tattoo by his eye. I was very skeptic about this guy.  Eventually my key to my room worked. The sheets on the bed were very hard to sleep on, i never experienced this before in any hotels that I've stayed at. When the next morning arrived, I went back down to the restaurant for breakfast, and ordered an omelette. And coffee the waitress messed up on both of my orders. My coffee was cold and she gave me scrambled eggs and toast instead of an omelette. Is it really that hard to take someone's order? Also when I checked out, I noticed that my room was $159 plus tax. $159 for staying at this hotel. Are you kidding me? That is outrageous. A hotel room at this hotel is not worth $159 plus tax. If I'm going to be paying that much to stay at a hotel like that I would've stayed at a hotel in downtown Houston, not in Channelview. Overall, this hotel is not worth the stay and money. The staff at the hotel other than the young girl that checked me in does not have great customer service skills and its not worth the $$ to stay at. The food was below average, the pool, hot tub, sauna and my duplicate TV stations was all in all a disappointment. I will tell all my friends and family to stay away from this hotel. Also I noticed when I was at this hotel, there  was very little cars in the parking lot. Maybe if you guys reduce the rate to an affordable price instead of $159 y'all will get some people staying there.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55609-d1910481-r115164654-Holiday_Inn_Houston_East_Channelview-Channelview_Texas.html</t>
   </si>
   <si>
@@ -1024,9 +1610,6 @@
   </si>
   <si>
     <t>I reserved two rooms at this hotel and never even made it to check in.  The horrible service started two days prior to my arrival.  The issue began behind a rate that I had guaranteed online.  The DOS, Mari and GM, Chris were both no help to me.  OBVIOUSLY THEY ARE PUPPETS AND WHEN THE OWNER PULLS THE STRING THEY JUMP;  I had made the reservation three weeks prior to my daughter's 14th birthday.  I reserved two rooms for her and her friends as well as myself.  On the day of arrival, I received a phone call from the "owner" of the property inwhich he proceeded to curse me out!! And let me know that he would be cancelling my reservations and I was not wanted on his property!  He then told me and IHG that we could  "GO TO H***" !!! ABSOLUTELY THE WORST CUSTOMER SERVICE I HAVE EVER RECEIVED WITHOUT A DOUBT!!!!!!!!!!!! So needless to say, I'M SURE IF THE MANAGEMENT AND OWNERSHIP ARE THIS HORRIBLE, RUDE, AND DISGUSTING THE PROPERTY IS TOO!!MoreShow less</t>
-  </si>
-  <si>
-    <t>July 2011</t>
   </si>
   <si>
     <t>I reserved two rooms at this hotel and never even made it to check in.  The horrible service started two days prior to my arrival.  The issue began behind a rate that I had guaranteed online.  The DOS, Mari and GM, Chris were both no help to me.  OBVIOUSLY THEY ARE PUPPETS AND WHEN THE OWNER PULLS THE STRING THEY JUMP;  I had made the reservation three weeks prior to my daughter's 14th birthday.  I reserved two rooms for her and her friends as well as myself.  On the day of arrival, I received a phone call from the "owner" of the property inwhich he proceeded to curse me out!! And let me know that he would be cancelling my reservations and I was not wanted on his property!  He then told me and IHG that we could  "GO TO H***" !!! ABSOLUTELY THE WORST CUSTOMER SERVICE I HAVE EVER RECEIVED WITHOUT A DOUBT!!!!!!!!!!!! So needless to say, I'M SURE IF THE MANAGEMENT AND OWNERSHIP ARE THIS HORRIBLE, RUDE, AND DISGUSTING THE PROPERTY IS TOO!!More</t>
@@ -1621,7 +2204,7 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
@@ -1629,16 +2212,12 @@
       <c r="O3" t="s">
         <v>53</v>
       </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1702,7 +2281,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -1718,7 +2297,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1727,37 +2306,35 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1765,7 +2342,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1781,52 +2358,48 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>74</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>75</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>76</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>78</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>71</v>
       </c>
       <c r="O6" t="s">
         <v>53</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1863,13 +2436,13 @@
         <v>83</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
         <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1881,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -1903,7 +2476,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1912,49 +2485,45 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
         <v>53</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="n">
         <v>5</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>94</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
         <v>95</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -1970,46 +2539,46 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>97</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>98</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>99</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>100</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
         <v>101</v>
       </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>102</v>
-      </c>
-      <c r="O9" t="s">
-        <v>103</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2017,7 +2586,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -2033,40 +2602,40 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>104</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>105</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>106</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>107</v>
       </c>
-      <c r="L10" t="s">
-        <v>108</v>
-      </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s">
         <v>53</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
@@ -2078,7 +2647,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
@@ -2094,31 +2663,31 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
         <v>110</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>111</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>112</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
         <v>113</v>
-      </c>
-      <c r="L11" t="s">
-        <v>114</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>115</v>
       </c>
       <c r="O11" t="s">
         <v>53</v>
@@ -2133,13 +2702,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>114</v>
+      </c>
+      <c r="X11" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y11" t="s">
         <v>116</v>
-      </c>
-      <c r="X11" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="12">
@@ -2155,49 +2724,55 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
         <v>119</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>120</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>121</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>122</v>
-      </c>
-      <c r="L12" t="s">
-        <v>123</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>115</v>
       </c>
       <c r="O12" t="s">
         <v>53</v>
       </c>
-      <c r="P12" t="s"/>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>123</v>
+      </c>
+      <c r="X12" t="s">
         <v>124</v>
-      </c>
-      <c r="X12" t="s">
-        <v>117</v>
       </c>
       <c r="Y12" t="s">
         <v>125</v>
@@ -2237,35 +2812,35 @@
         <v>130</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
         <v>131</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>3</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X13" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
@@ -2281,7 +2856,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2290,22 +2865,22 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
         <v>53</v>
@@ -2326,13 +2901,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="X14" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
@@ -2348,7 +2923,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2357,45 +2932,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>139</v>
-      </c>
-      <c r="X15" t="s">
-        <v>140</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
         <v>147</v>
       </c>
@@ -2413,7 +2986,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2422,32 +2995,30 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="O16" t="s">
         <v>53</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
@@ -2457,12 +3028,8 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>139</v>
-      </c>
-      <c r="X16" t="s">
-        <v>140</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
         <v>153</v>
       </c>
@@ -2480,7 +3047,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2489,49 +3056,49 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="n">
+        <v>101</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
         <v>3</v>
       </c>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="n">
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
         <v>3</v>
       </c>
-      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
@@ -2547,7 +3114,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2556,29 +3123,27 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O18" t="s">
-        <v>168</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="n">
         <v>5</v>
       </c>
@@ -2586,19 +3151,19 @@
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="X18" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="Y18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
@@ -2614,7 +3179,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2623,25 +3188,25 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O19" t="s">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2653,13 +3218,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
@@ -2675,7 +3240,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2684,50 +3249,40 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="O20" t="s">
         <v>53</v>
       </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X20" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="Y20" t="s">
         <v>187</v>
@@ -2767,41 +3322,35 @@
         <v>192</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="O21" t="s">
         <v>53</v>
       </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="X21" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y21" t="s">
         <v>194</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="22">
@@ -2817,62 +3366,58 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
         <v>196</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>197</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>198</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>199</v>
       </c>
-      <c r="L22" t="s">
-        <v>200</v>
-      </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="O22" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
+        <v>200</v>
+      </c>
+      <c r="X22" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y22" t="s">
         <v>202</v>
-      </c>
-      <c r="X22" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="23">
@@ -2888,60 +3433,56 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>204</v>
+      </c>
+      <c r="J23" t="s">
         <v>205</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>206</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>207</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
         <v>208</v>
       </c>
-      <c r="L23" t="s">
-        <v>209</v>
-      </c>
-      <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s">
-        <v>210</v>
-      </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
+        <v>209</v>
+      </c>
+      <c r="X23" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y23" t="s">
         <v>211</v>
-      </c>
-      <c r="X23" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="24">
@@ -2957,58 +3498,58 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" t="s">
         <v>214</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>215</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
         <v>216</v>
       </c>
-      <c r="K24" t="s">
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>217</v>
       </c>
-      <c r="L24" t="s">
-        <v>218</v>
-      </c>
-      <c r="M24" t="n">
-        <v>2</v>
-      </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
+        <v>218</v>
+      </c>
+      <c r="X24" t="s">
         <v>219</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>220</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="25">
@@ -3024,52 +3565,56 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
         <v>222</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
+        <v>214</v>
+      </c>
+      <c r="K25" t="s">
         <v>223</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
         <v>224</v>
       </c>
-      <c r="K25" t="s">
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
         <v>225</v>
-      </c>
-      <c r="L25" t="s">
-        <v>226</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>227</v>
       </c>
       <c r="O25" t="s">
         <v>53</v>
       </c>
-      <c r="P25" t="s"/>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="X25" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="Y25" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26">
@@ -3085,62 +3630,58 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>228</v>
+      </c>
+      <c r="J26" t="s">
+        <v>229</v>
+      </c>
+      <c r="K26" t="s">
+        <v>230</v>
+      </c>
+      <c r="L26" t="s">
         <v>231</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
-        <v>232</v>
-      </c>
-      <c r="J26" t="s">
-        <v>233</v>
-      </c>
-      <c r="K26" t="s">
-        <v>234</v>
-      </c>
-      <c r="L26" t="s">
-        <v>235</v>
-      </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="O26" t="s">
         <v>53</v>
       </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R26" t="n">
-        <v>3</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="X26" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="Y26" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27">
@@ -3156,7 +3697,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3165,43 +3706,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="J27" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K27" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O27" t="s">
         <v>53</v>
       </c>
-      <c r="P27" t="s"/>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="X27" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Y27" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28">
@@ -3217,58 +3764,58 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>243</v>
+      </c>
+      <c r="J28" t="s">
+        <v>244</v>
+      </c>
+      <c r="K28" t="s">
+        <v>245</v>
+      </c>
+      <c r="L28" t="s">
         <v>246</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
         <v>247</v>
       </c>
-      <c r="J28" t="s">
-        <v>248</v>
-      </c>
-      <c r="K28" t="s">
-        <v>249</v>
-      </c>
-      <c r="L28" t="s">
-        <v>250</v>
-      </c>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="n">
         <v>4</v>
       </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="X28" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="Y28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
@@ -3284,43 +3831,43 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>251</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
         <v>252</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>253</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>254</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>255</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
         <v>256</v>
       </c>
-      <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="s">
-        <v>257</v>
-      </c>
       <c r="O29" t="s">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
         <v>5</v>
@@ -3329,13 +3876,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
+        <v>257</v>
+      </c>
+      <c r="X29" t="s">
         <v>258</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>259</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="30">
@@ -3351,52 +3898,58 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>260</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
         <v>261</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>262</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>263</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>264</v>
       </c>
-      <c r="L30" t="s">
-        <v>265</v>
-      </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
+        <v>257</v>
+      </c>
+      <c r="X30" t="s">
         <v>258</v>
       </c>
-      <c r="X30" t="s">
-        <v>259</v>
-      </c>
       <c r="Y30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
@@ -3412,51 +3965,41 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
         <v>267</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>268</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>269</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>270</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
         <v>271</v>
       </c>
-      <c r="M31" t="n">
-        <v>4</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>272</v>
       </c>
-      <c r="O31" t="s">
-        <v>168</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>4</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
@@ -3495,46 +4038,40 @@
         <v>277</v>
       </c>
       <c r="J32" t="s">
+        <v>268</v>
+      </c>
+      <c r="K32" t="s">
         <v>278</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>279</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>271</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>273</v>
+      </c>
+      <c r="X32" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y32" t="s">
         <v>280</v>
-      </c>
-      <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
-      <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="s">
-        <v>281</v>
-      </c>
-      <c r="X32" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="33">
@@ -3550,58 +4087,52 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>282</v>
+      </c>
+      <c r="J33" t="s">
+        <v>283</v>
+      </c>
+      <c r="K33" t="s">
         <v>284</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="L33" t="s">
         <v>285</v>
       </c>
-      <c r="J33" t="s">
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>271</v>
+      </c>
+      <c r="O33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>273</v>
+      </c>
+      <c r="X33" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y33" t="s">
         <v>286</v>
-      </c>
-      <c r="K33" t="s">
-        <v>287</v>
-      </c>
-      <c r="L33" t="s">
-        <v>288</v>
-      </c>
-      <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
-      <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="s">
-        <v>289</v>
-      </c>
-      <c r="X33" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="34">
@@ -3617,7 +4148,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3626,22 +4157,22 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="J34" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K34" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L34" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="O34" t="s">
         <v>53</v>
@@ -3666,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="X34" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Y34" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35">
@@ -3688,7 +4219,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3697,22 +4228,22 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="J35" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K35" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="O35" t="s">
         <v>53</v>
@@ -3736,10 +4267,14 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>300</v>
+      </c>
+      <c r="X35" t="s">
+        <v>301</v>
+      </c>
       <c r="Y35" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36">
@@ -3755,43 +4290,43 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>303</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>304</v>
+      </c>
+      <c r="J36" t="s">
+        <v>305</v>
+      </c>
+      <c r="K36" t="s">
+        <v>306</v>
+      </c>
+      <c r="L36" t="s">
         <v>307</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
         <v>308</v>
       </c>
-      <c r="J36" t="s">
-        <v>309</v>
-      </c>
-      <c r="K36" t="s">
-        <v>310</v>
-      </c>
-      <c r="L36" t="s">
-        <v>311</v>
-      </c>
-      <c r="M36" t="n">
-        <v>4</v>
-      </c>
-      <c r="N36" t="s">
-        <v>312</v>
-      </c>
       <c r="O36" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="P36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q36" t="n">
         <v>5</v>
       </c>
       <c r="R36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -3803,10 +4338,14 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>309</v>
+      </c>
+      <c r="X36" t="s">
+        <v>310</v>
+      </c>
       <c r="Y36" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37">
@@ -3822,56 +4361,62 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>312</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>313</v>
+      </c>
+      <c r="J37" t="s">
         <v>314</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="K37" t="s">
         <v>315</v>
       </c>
-      <c r="J37" t="s">
+      <c r="L37" t="s">
         <v>316</v>
       </c>
-      <c r="K37" t="s">
-        <v>317</v>
-      </c>
-      <c r="L37" t="s">
-        <v>318</v>
-      </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="O37" t="s">
         <v>53</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S37" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>309</v>
+      </c>
+      <c r="X37" t="s">
+        <v>310</v>
+      </c>
       <c r="Y37" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38">
@@ -3887,54 +4432,1802 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>318</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>319</v>
+      </c>
+      <c r="J38" t="s">
+        <v>314</v>
+      </c>
+      <c r="K38" t="s">
+        <v>320</v>
+      </c>
+      <c r="L38" t="s">
         <v>321</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
-        <v>322</v>
-      </c>
-      <c r="J38" t="s">
-        <v>323</v>
-      </c>
-      <c r="K38" t="s">
-        <v>324</v>
-      </c>
-      <c r="L38" t="s">
-        <v>325</v>
-      </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="O38" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>309</v>
+      </c>
+      <c r="X38" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>323</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>324</v>
+      </c>
+      <c r="J39" t="s">
+        <v>325</v>
+      </c>
+      <c r="K39" t="s">
+        <v>326</v>
+      </c>
+      <c r="L39" t="s">
+        <v>327</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>247</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>328</v>
+      </c>
+      <c r="X39" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>331</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>332</v>
+      </c>
+      <c r="J40" t="s">
+        <v>333</v>
+      </c>
+      <c r="K40" t="s">
+        <v>334</v>
+      </c>
+      <c r="L40" t="s">
+        <v>335</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
         <v>1</v>
       </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
-      <c r="Y38" t="s">
-        <v>327</v>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>336</v>
+      </c>
+      <c r="X40" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>339</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>340</v>
+      </c>
+      <c r="J41" t="s">
+        <v>341</v>
+      </c>
+      <c r="K41" t="s">
+        <v>342</v>
+      </c>
+      <c r="L41" t="s">
+        <v>343</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>344</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>345</v>
+      </c>
+      <c r="X41" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>348</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>349</v>
+      </c>
+      <c r="J42" t="s">
+        <v>350</v>
+      </c>
+      <c r="K42" t="s">
+        <v>351</v>
+      </c>
+      <c r="L42" t="s">
+        <v>352</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>353</v>
+      </c>
+      <c r="O42" t="s">
+        <v>85</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>354</v>
+      </c>
+      <c r="X42" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>357</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>358</v>
+      </c>
+      <c r="J43" t="s">
+        <v>359</v>
+      </c>
+      <c r="K43" t="s">
+        <v>360</v>
+      </c>
+      <c r="L43" t="s">
+        <v>361</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>353</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>362</v>
+      </c>
+      <c r="X43" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>364</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>365</v>
+      </c>
+      <c r="J44" t="s">
+        <v>366</v>
+      </c>
+      <c r="K44" t="s">
+        <v>367</v>
+      </c>
+      <c r="L44" t="s">
+        <v>368</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>369</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>370</v>
+      </c>
+      <c r="X44" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>373</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>374</v>
+      </c>
+      <c r="J45" t="s">
+        <v>375</v>
+      </c>
+      <c r="K45" t="s">
+        <v>376</v>
+      </c>
+      <c r="L45" t="s">
+        <v>377</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>369</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>370</v>
+      </c>
+      <c r="X45" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>379</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>380</v>
+      </c>
+      <c r="J46" t="s">
+        <v>381</v>
+      </c>
+      <c r="K46" t="s">
+        <v>382</v>
+      </c>
+      <c r="L46" t="s">
+        <v>383</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>370</v>
+      </c>
+      <c r="X46" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>385</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>386</v>
+      </c>
+      <c r="J47" t="s">
+        <v>387</v>
+      </c>
+      <c r="K47" t="s">
+        <v>388</v>
+      </c>
+      <c r="L47" t="s">
+        <v>389</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>390</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>391</v>
+      </c>
+      <c r="X47" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>394</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>395</v>
+      </c>
+      <c r="J48" t="s">
+        <v>396</v>
+      </c>
+      <c r="K48" t="s">
+        <v>397</v>
+      </c>
+      <c r="L48" t="s">
+        <v>398</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>390</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>391</v>
+      </c>
+      <c r="X48" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>400</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>401</v>
+      </c>
+      <c r="J49" t="s">
+        <v>402</v>
+      </c>
+      <c r="K49" t="s">
+        <v>403</v>
+      </c>
+      <c r="L49" t="s">
+        <v>404</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>390</v>
+      </c>
+      <c r="O49" t="s">
+        <v>272</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>405</v>
+      </c>
+      <c r="X49" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>408</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>409</v>
+      </c>
+      <c r="J50" t="s">
+        <v>410</v>
+      </c>
+      <c r="K50" t="s">
+        <v>411</v>
+      </c>
+      <c r="L50" t="s">
+        <v>412</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>390</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>405</v>
+      </c>
+      <c r="X50" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>414</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>415</v>
+      </c>
+      <c r="J51" t="s">
+        <v>416</v>
+      </c>
+      <c r="K51" t="s">
+        <v>417</v>
+      </c>
+      <c r="L51" t="s">
+        <v>418</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>419</v>
+      </c>
+      <c r="O51" t="s">
+        <v>132</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>420</v>
+      </c>
+      <c r="X51" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>423</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>424</v>
+      </c>
+      <c r="J52" t="s">
+        <v>425</v>
+      </c>
+      <c r="K52" t="s">
+        <v>426</v>
+      </c>
+      <c r="L52" t="s">
+        <v>427</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>428</v>
+      </c>
+      <c r="O52" t="s">
+        <v>85</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>429</v>
+      </c>
+      <c r="X52" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>432</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>433</v>
+      </c>
+      <c r="J53" t="s">
+        <v>434</v>
+      </c>
+      <c r="K53" t="s">
+        <v>435</v>
+      </c>
+      <c r="L53" t="s">
+        <v>436</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>428</v>
+      </c>
+      <c r="O53" t="s">
+        <v>272</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>437</v>
+      </c>
+      <c r="X53" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>440</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>441</v>
+      </c>
+      <c r="J54" t="s">
+        <v>442</v>
+      </c>
+      <c r="K54" t="s">
+        <v>443</v>
+      </c>
+      <c r="L54" t="s">
+        <v>444</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>445</v>
+      </c>
+      <c r="X54" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>448</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>449</v>
+      </c>
+      <c r="J55" t="s">
+        <v>450</v>
+      </c>
+      <c r="K55" t="s">
+        <v>451</v>
+      </c>
+      <c r="L55" t="s">
+        <v>452</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>453</v>
+      </c>
+      <c r="X55" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>456</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>457</v>
+      </c>
+      <c r="J56" t="s">
+        <v>458</v>
+      </c>
+      <c r="K56" t="s">
+        <v>459</v>
+      </c>
+      <c r="L56" t="s">
+        <v>460</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>428</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>461</v>
+      </c>
+      <c r="X56" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>464</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>465</v>
+      </c>
+      <c r="J57" t="s">
+        <v>466</v>
+      </c>
+      <c r="K57" t="s">
+        <v>467</v>
+      </c>
+      <c r="L57" t="s">
+        <v>468</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>469</v>
+      </c>
+      <c r="O57" t="s">
+        <v>272</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>470</v>
+      </c>
+      <c r="X57" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>474</v>
+      </c>
+      <c r="J58" t="s">
+        <v>475</v>
+      </c>
+      <c r="K58" t="s">
+        <v>476</v>
+      </c>
+      <c r="L58" t="s">
+        <v>477</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>478</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>480</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>481</v>
+      </c>
+      <c r="J59" t="s">
+        <v>482</v>
+      </c>
+      <c r="K59" t="s">
+        <v>483</v>
+      </c>
+      <c r="L59" t="s">
+        <v>484</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>485</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>486</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>487</v>
+      </c>
+      <c r="J60" t="s">
+        <v>488</v>
+      </c>
+      <c r="K60" t="s">
+        <v>489</v>
+      </c>
+      <c r="L60" t="s">
+        <v>490</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>491</v>
+      </c>
+      <c r="O60" t="s">
+        <v>132</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>493</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>494</v>
+      </c>
+      <c r="J61" t="s">
+        <v>495</v>
+      </c>
+      <c r="K61" t="s">
+        <v>496</v>
+      </c>
+      <c r="L61" t="s">
+        <v>497</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>498</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>500</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>501</v>
+      </c>
+      <c r="J62" t="s">
+        <v>502</v>
+      </c>
+      <c r="K62" t="s">
+        <v>503</v>
+      </c>
+      <c r="L62" t="s">
+        <v>504</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>505</v>
+      </c>
+      <c r="O62" t="s">
+        <v>85</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>506</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>507</v>
+      </c>
+      <c r="J63" t="s">
+        <v>508</v>
+      </c>
+      <c r="K63" t="s">
+        <v>509</v>
+      </c>
+      <c r="L63" t="s">
+        <v>510</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>511</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>60599</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>513</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>514</v>
+      </c>
+      <c r="J64" t="s">
+        <v>515</v>
+      </c>
+      <c r="K64" t="s">
+        <v>516</v>
+      </c>
+      <c r="L64" t="s">
+        <v>517</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>505</v>
+      </c>
+      <c r="O64" t="s">
+        <v>85</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
